--- a/excel/301 Indicativo - Presente.xlsx
+++ b/excel/301 Indicativo - Presente.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0-Coding\spingMvc\quiz-mini-springboot\quiz-mini-springboot\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="15540"/>
+    <workbookView windowWidth="30720" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +31,7 @@
     <t>例句</t>
   </si>
   <si>
-    <t>Indicativo - Presente</t>
+    <t>301 Indicativo - Presente</t>
   </si>
   <si>
     <t>essere</t>
@@ -571,18 +566,15 @@
   </si>
   <si>
     <t>correre</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>corro</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>corri</t>
   </si>
   <si>
     <t>corre</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>corriamo</t>
@@ -597,8 +589,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -613,21 +611,165 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,8 +782,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -664,9 +992,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -677,21 +1247,65 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -949,28 +1563,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="24.2222222222222" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.55555555555556" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="65.88671875" customWidth="1"/>
+    <col min="5" max="5" width="65.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -987,7 +1601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1001,7 +1615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1015,7 +1629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1029,7 +1643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1043,7 +1657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1057,7 +1671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1071,7 +1685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1085,7 +1699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1099,7 +1713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1113,7 +1727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1127,7 +1741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1141,7 +1755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1155,7 +1769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1169,7 +1783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1183,7 +1797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1197,7 +1811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1211,7 +1825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1225,7 +1839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1239,7 +1853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1253,7 +1867,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1267,7 +1881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1281,7 +1895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1295,7 +1909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1309,7 +1923,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1323,7 +1937,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1337,7 +1951,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1351,7 +1965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1365,7 +1979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1379,7 +1993,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1393,7 +2007,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1407,7 +2021,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1421,7 +2035,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1435,7 +2049,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1449,7 +2063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1463,7 +2077,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1477,7 +2091,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1491,7 +2105,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1505,7 +2119,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1519,7 +2133,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1533,7 +2147,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1547,7 +2161,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1561,7 +2175,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1575,7 +2189,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1589,7 +2203,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1603,7 +2217,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1617,7 +2231,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1631,7 +2245,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1645,7 +2259,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1659,7 +2273,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1673,7 +2287,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1687,7 +2301,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1701,7 +2315,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1715,7 +2329,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1729,7 +2343,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1743,7 +2357,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1757,7 +2371,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1771,7 +2385,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1785,7 +2399,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1799,7 +2413,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1813,7 +2427,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1827,7 +2441,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1841,7 +2455,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1855,7 +2469,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1869,7 +2483,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1883,7 +2497,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -1897,7 +2511,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1911,7 +2525,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -1925,7 +2539,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -1939,7 +2553,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -1953,7 +2567,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -1967,7 +2581,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -1981,7 +2595,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -1995,7 +2609,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2009,7 +2623,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -2023,7 +2637,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -2037,7 +2651,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2051,7 +2665,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +2679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -2079,7 +2693,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -2093,7 +2707,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2107,7 +2721,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -2121,7 +2735,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2135,7 +2749,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -2149,7 +2763,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2163,7 +2777,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -2177,7 +2791,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -2191,7 +2805,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -2205,7 +2819,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -2219,7 +2833,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -2233,7 +2847,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -2247,7 +2861,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -2261,7 +2875,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -2275,7 +2889,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -2289,7 +2903,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -2303,7 +2917,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -2317,7 +2931,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2331,7 +2945,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -2345,7 +2959,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -2359,7 +2973,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -2373,7 +2987,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -2387,7 +3001,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -2401,7 +3015,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -2415,7 +3029,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -2432,7 +3046,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -2449,7 +3063,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -2466,7 +3080,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -2483,7 +3097,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -2500,7 +3114,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -2517,7 +3131,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -2531,7 +3145,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -2545,7 +3159,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -2559,7 +3173,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -2573,7 +3187,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -2587,7 +3201,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -2601,7 +3215,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -2618,7 +3232,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -2635,7 +3249,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -2652,7 +3266,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -2669,7 +3283,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -2686,7 +3300,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -2703,7 +3317,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -2720,7 +3334,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -2737,7 +3351,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -2754,7 +3368,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -2771,7 +3385,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -2788,7 +3402,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -2805,7 +3419,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -2822,7 +3436,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -2839,7 +3453,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -2856,7 +3470,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -2873,7 +3487,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -2890,7 +3504,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -2907,7 +3521,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -2921,7 +3535,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -2935,7 +3549,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -2949,7 +3563,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -2963,7 +3577,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -2977,7 +3591,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -2991,7 +3605,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -3005,7 +3619,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -3019,7 +3633,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -3033,7 +3647,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -3047,7 +3661,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -3061,7 +3675,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -3075,7 +3689,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -3089,7 +3703,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -3103,7 +3717,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -3117,7 +3731,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -3131,7 +3745,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -3145,7 +3759,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -3160,8 +3774,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/301 Indicativo - Presente.xlsx
+++ b/excel/301 Indicativo - Presente.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carol\0-Coding\quiz-mini-springboot\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="15540"/>
+    <workbookView windowWidth="30720" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="528">
   <si>
     <t>类别名称</t>
   </si>
@@ -592,486 +587,16 @@
   </si>
   <si>
     <t>sembrare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>leggere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>emergere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pubblicare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lavorare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>aumentare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>aiutare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>appartenere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rappresentare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>trattarsi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>eseguire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rilassarsi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentirsi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>esistere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>diventare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>terminare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>festeggiare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>avvenire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>impedire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>scomparire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>contattare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>conoscere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>studiare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>trovare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>posizionare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>riflettere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>collegare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>programmare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>apprezzare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ricevere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>riuscire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>attrarre</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>condividere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>riportare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vedere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>incontrare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>invitare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>chiudere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mostrare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>arrivare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>durare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>presentare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>applaudire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>acquistare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vincere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>provare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dedicare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>realizzare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rompersi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pensare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mentire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sostituire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>reagire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>desiderare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>inseguire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>frequentare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>occorrere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>affrontare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>possedere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>seguire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>inserire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>iniziare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>entrare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>illustrare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>guardare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>passare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>costringere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>spiegare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ringraziare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>raccontare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>partecipare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prendere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cominciare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>accogliere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bastare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sottolineare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>raggiungere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>avvicinarsi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>visitare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sfruttare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>augurarsi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>riproporre</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ricordare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>viaggiare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>addormentarsi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>squillare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>suggerire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>immaginare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>assistere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rivolgere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>scattare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>alzare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>accendere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>toccarsi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sorridere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>occuparsi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>accorgersi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>confessare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>continuare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>intervenire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ripensare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>decidere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ospitare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>spingere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cambiare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>candidarsi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>parlare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>provenire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>svolgere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>concludere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>giungere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>evidenziare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>consentire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>muoversi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>registrare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>controllare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>imparare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>permettere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lei/lui</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>s</t>
     </r>
     <r>
@@ -1079,25 +604,26 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>embra</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Sembra che la notizia sia vera.这消息好像是真的。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lei/lui</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leggere</t>
   </si>
   <si>
     <t>legge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergere</t>
+  </si>
+  <si>
+    <t>emerge</t>
   </si>
   <si>
     <r>
@@ -1105,7 +631,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1126,48 +651,42 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>: Dal buio emersero due loschi individui.黑暗中出现两个形迹可疑的人</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>emerge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pubblicare</t>
+  </si>
+  <si>
+    <t>pubblica</t>
   </si>
   <si>
     <t>pubblicare una notizia发表一条消息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pubblica</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lavorare</t>
   </si>
   <si>
     <t>lavora</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>noi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>osservare</t>
   </si>
   <si>
     <t>osserviamo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>integrare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>osservare</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">(1) 观察, 观测; 注视, 监视：
 osservare una ferita 观察伤口
 </t>
@@ -1177,7 +696,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1198,7 +716,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1220,7 +737,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1236,24 +752,39 @@
       </rPr>
       <t>遵守纪律</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aumentare</t>
   </si>
   <si>
     <t>aumenta</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>v.tr 增加 mi hanno aumentato lo stipendio 她们给我涨工资了
  （人是主语，人来做增加这个动作）
 v.intr 增加 la popolazione è aumentata notevolmente 人口显著增加了（增长的东西是主语）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aiutare</t>
   </si>
   <si>
     <t>aiuta</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>appartenere</t>
+  </si>
+  <si>
+    <t>appartiene</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>v.intr.属于</t>
     </r>
     <r>
@@ -1261,7 +792,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1283,7 +813,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1299,27 +828,32 @@
       </rPr>
       <t>那本字典是学习图书馆的</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>appartiene</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rappresentare</t>
   </si>
   <si>
     <t>rappresenta</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>象征，体现，表示：
 Il verde rappresenta la speranza. 绿色象征希望。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trattarsi</t>
   </si>
   <si>
     <t>si tratta</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>si tratta di...关于, 涉及, 问题在于</t>
     </r>
     <r>
@@ -1327,245 +861,280 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Si tratta di vita o di morte.这与生死有关</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>eseguire</t>
   </si>
   <si>
     <t>esegue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>实行，实施：
 eseguire un lavoro (un piano) 实行一项工作 (一个计划)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rilassarsi</t>
   </si>
   <si>
     <t>si rilassa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>放松, 松懈; 休息, 轻松一下 Cerca di rilassarti un po’！你尽量放松下</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentirsi</t>
+  </si>
+  <si>
+    <t>mi sento</t>
   </si>
   <si>
     <t>感到，觉得;想要;打电话   Non mi sento di uscire. 我不想出去</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mi sento</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>io</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>esistere</t>
+  </si>
+  <si>
+    <t>esiste</t>
   </si>
   <si>
     <t>存在，有 Questo personaggio non esiste.这个人物是不存在的.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>esiste</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>diventare</t>
   </si>
   <si>
     <t>diventa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Il latte è diventato acido. 牛奶变酸了</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>terminare</t>
+  </si>
+  <si>
+    <t>termina</t>
   </si>
   <si>
     <t>v.intr [aus. essere] 结束; 终止, 完毕 Lo spettacolo termina alle cinque. 演出在五点钟结束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>termina</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>festeggiare</t>
+  </si>
+  <si>
+    <t>festeggia</t>
   </si>
   <si>
     <t>庆祝，欢庆：
 festeggiare un anniversario庆祝周年纪念日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>festeggia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avvenire</t>
   </si>
   <si>
     <t>avviene</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">v.intr Che cosa è avvenuto?发生了什么事?
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>impedire</t>
+  </si>
+  <si>
+    <t>impedisce</t>
   </si>
   <si>
     <t>妨碍 Il maltempo ci ha impedito di partire.恶劣的天气使我们不能启程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>impedisce</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scomparire</t>
+  </si>
+  <si>
+    <t>scomparisce</t>
   </si>
   <si>
     <t>v.intr 不见, 消失，消逝, 消散:L’aereo scomparve all’orizzonte.飞机消失在地平线上</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>scomparisce</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>contattare</t>
+  </si>
+  <si>
+    <t>contatta</t>
   </si>
   <si>
     <t>ho contattato un cliente 我联系了一个客户</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>contatta</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>conoscere</t>
   </si>
   <si>
     <t>conosciamo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>voi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>studiare</t>
   </si>
   <si>
     <t>studiate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trovare</t>
   </si>
   <si>
     <t>trova</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>posizionare</t>
   </si>
   <si>
     <t>posiziona</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vt. posizionare le telecamere 摆放好摄像头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>riflettere</t>
   </si>
   <si>
     <t>riflette</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vt.反映，反射 L’aumento dei prezzi riflette la difficoltà della produzione. 物价上涨反映出生产上的困难
 vi. （后面+ su） 思考 riflettere sulle conseguenze 考虑后果
 Lasciami riflettere su un po’. 让我想一想</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>collegare</t>
+  </si>
+  <si>
+    <t>collega</t>
   </si>
   <si>
     <t>连接, 接合：
 collegare due città con una linea ferroviaria 用铁路线把两个城市连接起来</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>collega</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>programmare</t>
+  </si>
+  <si>
+    <t>programma</t>
   </si>
   <si>
     <t>vt. 制定计划,规划: programmare la produzione industriale 制定工业生产计划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>programma</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>apprezzare</t>
+  </si>
+  <si>
+    <t>apprezziamo</t>
   </si>
   <si>
     <t>Tutti apprezzano il suo lavoro. 大家都很重视他的工作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>apprezziamo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ricevere</t>
   </si>
   <si>
     <t>riceve</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>riuscire</t>
   </si>
   <si>
     <t>riesce</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>riuscire a fare qlco 成功做某事 Forse riusciremo a terminare il lavoro domani.也许明天我们可以结束工作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrarre</t>
+  </si>
+  <si>
+    <t>attrae</t>
   </si>
   <si>
     <t>招引, 引诱, 诱惑：
 I manifesti affissi al muro attrassero molti passanti 墙上的广告招引来许多行人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>attrae</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>condividere</t>
+  </si>
+  <si>
+    <t>condivide</t>
   </si>
   <si>
     <t>分享，分担；共同具有，共同使用：
 condividere gioie e dolori con qlcu. 与某人同甘共苦</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>condivide</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>riportare</t>
+  </si>
+  <si>
+    <t>riporta</t>
   </si>
   <si>
     <t>带回; 拿回：Mi ha riportato a casa in automobile. 她用汽车把我带回了家</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>riporta</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedere</t>
   </si>
   <si>
     <t>vede</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>incontrare</t>
   </si>
   <si>
     <t>incontra</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>invitare</t>
   </si>
   <si>
     <t>invita</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiudere</t>
   </si>
   <si>
     <t>chiude</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mostrare</t>
   </si>
   <si>
     <t>mostra</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrivare</t>
   </si>
   <si>
     <t>arriva</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>durare</t>
   </si>
   <si>
     <t>dura</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>La rappresentazione dura due ore. 演出持续了两个小时</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentare</t>
+  </si>
+  <si>
+    <t>presenta</t>
   </si>
   <si>
     <t>Posso presentarti mia cugina?我可以把我的表妹介绍给你吗？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>presenta</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>applaudire</t>
   </si>
   <si>
     <t>applaude</t>
@@ -1573,58 +1142,65 @@
   <si>
     <t>vt.为...鼓掌，向...喝彩；欢呼：Gli operi applaudirono a lungo gli attori. 工人向演员们经久不息地鼓掌。
 vi. applaudire a uno spettacolo 为演出喝彩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquistare</t>
+  </si>
+  <si>
+    <t>acquista</t>
   </si>
   <si>
     <t>买</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>acquista</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vincere</t>
+  </si>
+  <si>
+    <t>vince</t>
   </si>
   <si>
     <t xml:space="preserve">vincere un incontro di calcio 赢得一场足球比赛
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vince</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>provare</t>
   </si>
   <si>
     <t>prova</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vt. Proviamo a entrare.我们试着进去</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentire</t>
   </si>
   <si>
     <t>sento</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>io</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dedicare</t>
+  </si>
+  <si>
+    <t>dedica</t>
   </si>
   <si>
     <t>Il primo capitolo del romanzo è dedicato alla descrizione dell’ambiente.小说的第一章用来描写环境</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dedica</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>realizzare</t>
   </si>
   <si>
     <t>realizza</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>occorre</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>realizzare la gravità di una situazione 认识到情况的严重性</t>
     </r>
     <r>
@@ -1632,30 +1208,44 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> realizzare un sogno 实现梦想
 </t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rompersi</t>
+  </si>
+  <si>
+    <t>si rompe</t>
   </si>
   <si>
     <t>自反动词：打破，折断，弄碎：
 Il bicchiere cadde e si ruppe in mille pezzi.杯子掉了下来，打得粉碎。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>si rompe</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pensare</t>
   </si>
   <si>
     <t>pensa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mentire</t>
+  </si>
+  <si>
+    <t>mente</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>v</t>
     </r>
     <r>
@@ -1663,48 +1253,61 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>i. Non mentire ！不要说谎！</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mente</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sostituire</t>
+  </si>
+  <si>
+    <t>sostituisce</t>
   </si>
   <si>
     <t>sostituire il tappeto logoro con un nuovo用新地毯换下旧地毯</t>
   </si>
   <si>
-    <t>sostituisce</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>reagire</t>
+  </si>
+  <si>
+    <t>reagisce</t>
   </si>
   <si>
     <t xml:space="preserve"> sotto anestesia i nervi non reagiscono 
 麻醉状态下神经没有反应</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>reagisce</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>desiderare</t>
   </si>
   <si>
     <t>desidera</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>inseguire</t>
   </si>
   <si>
     <t>insegue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>inseguire il nemico 追击敌人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>frequentare</t>
+  </si>
+  <si>
+    <t>frequenta</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>frequentare un bar 常去酒吧</t>
     </r>
     <r>
@@ -1712,17 +1315,17 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Mia figlia frequenta la quinta elementare.我女儿上小学五年级</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>frequenta</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>occorrere</t>
+  </si>
+  <si>
+    <t>occorre</t>
   </si>
   <si>
     <t>v.intr.
@@ -1734,7 +1337,12 @@
 (2) [impers.] 必须：
 Occorre agire subito. 必须马上行动。
 Occorre far presto. 必须快点。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>affrontare</t>
+  </si>
+  <si>
+    <t>affronta</t>
   </si>
   <si>
     <t>v.tr.
@@ -1748,251 +1356,14 @@
 (3) 研究，处理：
 affrontare una questione 研究问题
 affrontare un problema spinoso 处理一个棘手问题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>affronta</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>possedere</t>
   </si>
   <si>
     <t>possiede</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>segue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>inserisce</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>inizia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>entra</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>illustra</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>guarda</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>passa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>costringe</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>spiegate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ringrazio</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>racconta</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>partecipa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prende</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>comincia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>accolgo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>basta</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sottolinea</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>raggiunge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>si avvicina</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>visita</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sfrutta</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ci auguriamo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ripropone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ricorda</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>viaggia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>si addormenta</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>squilla</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>suggerisce</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>immagino</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>assiste</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rivolgo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>io</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>scatta</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>alza</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>accende</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>si tocca</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sorride</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mi occupo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>si accorge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>confessa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>countinuo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>interviene</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ripensa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>decide</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ospita</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>spinge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cambia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>si candida</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>noi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>parliamo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>proviene</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>svolge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>conclude</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>giunge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>evidenzia</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>propo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>r</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2001,44 +1372,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>rsi</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>si propone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>consente</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>si muove</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>registra</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>controllate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>imparate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>integra</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>permette</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>v</t>
     </r>
     <r>
@@ -2046,7 +1379,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2058,48 +1390,118 @@
 possedere molte qualità有许多优良品质
 possedere uno spiccato senso musicale有一种特殊的音乐感</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seguire</t>
+  </si>
+  <si>
+    <t>segue</t>
   </si>
   <si>
     <t>Vai avanti tu, io ti seguo.你在前面走, 我跟着你</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>inserire</t>
+  </si>
+  <si>
+    <t>inserisce</t>
   </si>
   <si>
     <t>插入，放入，嵌入：
 inserire una lettera nella busta 将信装入信封</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniziare</t>
+  </si>
+  <si>
+    <t>inizia</t>
   </si>
   <si>
     <t>开始;发动, 创始：
 iniziare il lavoro开始工作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrare</t>
+  </si>
+  <si>
+    <t>entra</t>
+  </si>
+  <si>
+    <t>illustrare</t>
+  </si>
+  <si>
+    <t>illustra</t>
   </si>
   <si>
     <t xml:space="preserve"> (举例、加注) 说明， (用图和例子等) 解释：
 illustrare un’opera con note 注释一部著作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guardare</t>
+  </si>
+  <si>
+    <t>guarda</t>
+  </si>
+  <si>
+    <t>passare</t>
+  </si>
+  <si>
+    <t>passa</t>
+  </si>
+  <si>
+    <t>costringere</t>
+  </si>
+  <si>
+    <t>costringe</t>
   </si>
   <si>
     <t>vt.逼迫, 迫使, 强迫 La malattia mi ha costretto a restare a casa.疾病使我不得不待在家里</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spiegare</t>
+  </si>
+  <si>
+    <t>spiegate</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ringraziare</t>
+  </si>
+  <si>
+    <t>ringrazio</t>
   </si>
   <si>
     <t>感谢，谢谢：
 ringraziare sinceramente qlcu. 对某人表示衷心感谢</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>raccontare</t>
+  </si>
+  <si>
+    <t>racconta</t>
   </si>
   <si>
     <t xml:space="preserve">叙述，讲述；描写，描绘：
 raccontare una storia (una fiaba) 讲故事 (童话)
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>partecipare</t>
+  </si>
+  <si>
+    <t>partecipa</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>vi</t>
     </r>
     <r>
@@ -2107,17 +1509,40 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>.后面+a 参加, 参与：
 partecipare a una gara 参加一次比赛</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prendere</t>
+  </si>
+  <si>
+    <t>prende</t>
+  </si>
+  <si>
+    <t>cominciare</t>
+  </si>
+  <si>
+    <t>comincia</t>
+  </si>
+  <si>
+    <t>accogliere</t>
+  </si>
+  <si>
+    <t>accolgo</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>v</t>
     </r>
     <r>
@@ -2125,7 +1550,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2133,19 +1557,41 @@
 accogliere una domanda 接受一个要求
 </t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bastare</t>
+  </si>
+  <si>
+    <t>basta</t>
   </si>
   <si>
     <t>Lo stipendio non gli basta mai.工资对他来说总是不够的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sottolineare</t>
+  </si>
+  <si>
+    <t>sottolinea</t>
   </si>
   <si>
     <t>vt. 着重指出, 强调指出,使突出：
 Tengo a sottolineare l’importanza di questo particolare.我想强调指出这个细节的重要</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>raggiungere</t>
+  </si>
+  <si>
+    <t>raggiunge</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>v</t>
     </r>
     <r>
@@ -2153,7 +1599,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2161,10 +1606,22 @@
 Recentemente abbiamo raggiunto ottimi risultati. 最近我们取得了很好的成绩。
 </t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avvicinarsi</t>
+  </si>
+  <si>
+    <t>si avvicina</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">v.rifl.
 临近; 接近, 靠近：
 </t>
@@ -2174,7 +1631,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2190,35 +1646,83 @@
       </rPr>
       <t>船靠近港口</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitare</t>
+  </si>
+  <si>
+    <t>visita</t>
+  </si>
+  <si>
+    <t>sfruttare</t>
+  </si>
+  <si>
+    <t>sfrutta</t>
   </si>
   <si>
     <t>vt. 开采，剥削，利用 sfruttare la fiducia di qlcu.利用某人的信任</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>augurarsi</t>
+  </si>
+  <si>
+    <t>ci auguriamo</t>
   </si>
   <si>
     <t>augurarsi
 v.rifl.
 希望：
 Tutti si augurano di visitare Yan’an.大家都希望能访问延安</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>riproporre</t>
+  </si>
+  <si>
+    <t>ripropone</t>
   </si>
   <si>
     <t xml:space="preserve">重新提出 ★★ 再提出
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ricordare</t>
+  </si>
+  <si>
+    <t>ricorda</t>
+  </si>
+  <si>
+    <t>viaggiare</t>
+  </si>
+  <si>
+    <t>viaggia</t>
+  </si>
+  <si>
+    <t>addormentarsi</t>
+  </si>
+  <si>
+    <t>si addormenta</t>
   </si>
   <si>
     <t xml:space="preserve">v.rifl.
 (1) 入睡：
 Non si potevano addormentarsi </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>squillare</t>
+  </si>
+  <si>
+    <t>squilla</t>
   </si>
   <si>
     <t>v.intr.
 [aus. essere 或 avere] (钟、铃等) 鸣, 响：
 Il telefono squilla.电话铃响了</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggerire</t>
+  </si>
+  <si>
+    <t>suggerisce</t>
   </si>
   <si>
     <t>(1) 使人想起;启发, 启示, 建议：
@@ -2227,11 +1731,21 @@
 Ilmedico ha suggerito al paziente di trascorrere un periodo di riposo in montagna. 医生建议病人到山上休息一段时期。
 (2) 提醒, 提示, 暗示：
 suggerire una risposta暗示一个回答</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>immaginare</t>
+  </si>
+  <si>
+    <t>immagino</t>
   </si>
   <si>
     <t>Non puoi immaginare quanto ne sia lieto!你不能想象我是多么的高兴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistere</t>
+  </si>
+  <si>
+    <t>assiste</t>
   </si>
   <si>
     <t>v.intr.
@@ -2246,10 +1760,22 @@
 assistere i pazienti 照料病人
 ★　常用短语：
 che la fortuna t’assista! 祝你运气好！</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rivolgere</t>
+  </si>
+  <si>
+    <t>rivolgo</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>v</t>
     </r>
     <r>
@@ -2257,7 +1783,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2265,7 +1790,12 @@
 rivolgere attenzione a qlco 把注意力转向某事
 </t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scattare</t>
+  </si>
+  <si>
+    <t>scatta</t>
   </si>
   <si>
     <t>v.intr.
@@ -2282,11 +1812,21 @@
 v.tr.
 拍摄：
 scattare una foto拍照片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alzare</t>
+  </si>
+  <si>
+    <t>alza</t>
   </si>
   <si>
     <t>举起 ★★ 抬高 ★★ 抬 ★★ 举</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accendere</t>
+  </si>
+  <si>
+    <t>accende</t>
   </si>
   <si>
     <t>(1) 点 (火), 点燃：
@@ -2295,14 +1835,31 @@
 accendere una sigaretta点烟
 (2) 开;开动：
 accendere la luce开灯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>toccarsi</t>
+  </si>
+  <si>
+    <t>si tocca</t>
   </si>
   <si>
     <t>相互触碰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorridere</t>
+  </si>
+  <si>
+    <t>sorride</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>vi</t>
     </r>
     <r>
@@ -2310,14 +1867,18 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>. 微笑：
 sorridere dolcemente甜蜜地微笑</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>occuparsi</t>
+  </si>
+  <si>
+    <t>mi occupo</t>
   </si>
   <si>
     <t>occuparsi
@@ -2330,10 +1891,22 @@
 Non te ne occupare! 你甭管了！你不要过问啦！
 (2) 受雇于，就业：
 S’è occupato come bidello in una scuola. 他在一所学校里做校工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accorgersi</t>
+  </si>
+  <si>
+    <t>si accorge</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>v.rifl.
 [</t>
     </r>
@@ -2355,10 +1928,22 @@
 ★　常用短语：
 senz’accorgersene (senza accorgersene) 未注意到, 不知不觉地</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessare</t>
+  </si>
+  <si>
+    <t>confessa</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>供认坦白 ★★ 承认 ★★ 坦白 ★★ 忏悔</t>
     </r>
     <r>
@@ -2366,7 +1951,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2383,11 +1967,27 @@
       <t>ti confesserò i miei sogni
 我向你坦白我的梦</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>continuare</t>
+  </si>
+  <si>
+    <t>coutinuo</t>
+  </si>
+  <si>
+    <t>intervenire</t>
+  </si>
+  <si>
+    <t>interviene</t>
   </si>
   <si>
     <t>vi.(后面+in)介入，干涉，出席参加 intervenire in un conflitto 参预冲突</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ripensare</t>
+  </si>
+  <si>
+    <t>ripensa</t>
   </si>
   <si>
     <t>(1) 再想一想, 重新思考：
@@ -2396,7 +1996,12 @@
 Ho ripensato alla tua proposta. 我又想了一下你的建议。
 (2) 重新想起, 重新想到: ripensare alla giovinezza又想起年青时代
 (3) 改变想法:Ci ho ripesato, resto a casa. 我改变了想法, 我留在家里</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decidere</t>
+  </si>
+  <si>
+    <t>decide</t>
   </si>
   <si>
     <t>(1) 解决, 裁决：
@@ -2407,7 +2012,12 @@
 Questa iniziativa va decisa collettivamente.这项创议必须集体决定。
 decidere l’ora della partenza 决定出发时间
 [assol.] Lasciate decidere a lui.你们让他来决定。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ospitare</t>
+  </si>
+  <si>
+    <t>ospita</t>
   </si>
   <si>
     <t>(1) 接待, 招待; 留宿：
@@ -2417,7 +2027,12 @@
 (2) 采用, 发表 (文章等) ; 展出 (画幅等) ：
 ospitare un articolo登载一篇文章, 发表一篇文章
 La mostra ospita molte opere dell’Ottocento. 这次画展展出许多十九世纪的作品。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spingere</t>
+  </si>
+  <si>
+    <t>spinge</t>
   </si>
   <si>
     <t xml:space="preserve">(1) 推, 推动: spingere un carro 推车
@@ -2431,18 +2046,45 @@
 Mi spinse a partire.他促使我动身。
 Il bisogno mi spinge a chiederti aiuto.需要迫使我来请你帮忙。
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cambiare</t>
+  </si>
+  <si>
+    <t>cambia</t>
+  </si>
+  <si>
+    <t>candidarsi</t>
+  </si>
+  <si>
+    <t>si candida</t>
   </si>
   <si>
     <t>candidarsi
 v.rifl.
 自己提名为候选人，参加竞选：
 candidarsi alla carica di sindaco 参加市长的竞选</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>parlare</t>
+  </si>
+  <si>
+    <t>parliamo</t>
+  </si>
+  <si>
+    <t>provenire</t>
+  </si>
+  <si>
+    <t>proviene</t>
   </si>
   <si>
     <t>vi.（后面+a) 来自，源自于merce che proviene dall’estero来自国外的货物</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>svolgere</t>
+  </si>
+  <si>
+    <t>svolge</t>
   </si>
   <si>
     <t xml:space="preserve">(1) 展开,打开, 摊开：
@@ -2455,10 +2097,22 @@
 svolgere un lavoro进行一项工作
 svolgere un’attività开展一项活动
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>concludere</t>
+  </si>
+  <si>
+    <t>conclude</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>v.tr</t>
     </r>
     <r>
@@ -2466,7 +2120,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2484,21 +2137,72 @@
 [aus. avere] 有说服力：
 un argomento che non conclude 一种没有说服力的论据</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>giungere</t>
+  </si>
+  <si>
+    <t>giunge</t>
   </si>
   <si>
     <t>vi.(后面+a)到达 Siamo giunti in tempo alla stazione.我们及时到了火车站。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>evidenziare</t>
+  </si>
+  <si>
+    <t>evidenzia</t>
   </si>
   <si>
     <t xml:space="preserve">1) 突出，使显明：
 evidenziare una pratica 准备速办一件公事
 evidenziare gli aspetti salienti di una recente scoperta scientifica把一项最新科学发明的主要部分如以突岀
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>propo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rsi</t>
+    </r>
+  </si>
+  <si>
+    <t>si propone</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">决定 </t>
     </r>
     <r>
@@ -2506,7 +2210,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2527,18 +2230,27 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> nelle loro discussioni 
 我决定不再介入她们的讨论</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>consentire</t>
+  </si>
+  <si>
+    <t>consente</t>
   </si>
   <si>
     <t>vt.允许 vi.同意（后面+a) i genitori hanno consentito al matrimonio 母父同意了这个婚事</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>muoversi</t>
+  </si>
+  <si>
+    <t>si muove</t>
   </si>
   <si>
     <t>muòversi
@@ -2556,12 +2268,22 @@
 muovere a pietà同情, 怜悯
 (4) 运动, 运转：
 La luna si muove intorno alla Terra.月亮绕地球转动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>registrare</t>
+  </si>
+  <si>
+    <t>registra</t>
   </si>
   <si>
     <t xml:space="preserve">把电视画面录在磁带上 ★★ 登记 ★★ 登记入住 ★★ 使适合 ★★ 调节 ★★ 调整 ★★ 校准 ★★ 注册 ★★ 记录 ★★ 录音
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>controllare</t>
+  </si>
+  <si>
+    <t>controllate</t>
   </si>
   <si>
     <t>(1) 控制: controllare il mercato internazionale del cacao控制国际可可市场
@@ -2574,7 +2296,18 @@
 controllare i conti查账
 controllare i biglietti查票
 controllare la pressione验血压</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>imparare</t>
+  </si>
+  <si>
+    <t>imparate</t>
+  </si>
+  <si>
+    <t>integrare</t>
+  </si>
+  <si>
+    <t>integra</t>
   </si>
   <si>
     <t xml:space="preserve">1) 补全，使完全：
@@ -2584,21 +2317,31 @@
 (3) 使并入，使成为一体：
 integrare una minoranza etnica 同化一个少数民族
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>permettere</t>
+  </si>
+  <si>
+    <t>permette</t>
   </si>
   <si>
     <t xml:space="preserve">v.tr.
 允许，准许，许可：
 Il medico non mi permette di uscire. 医生不许我出去。
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2610,26 +2353,168 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2642,8 +2527,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2666,9 +2737,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2695,17 +3008,61 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2963,28 +3320,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E271" sqref="E271"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="D253" sqref="D253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="24.1759259259259" customWidth="1"/>
+    <col min="2" max="2" width="17.5462962962963" customWidth="1"/>
+    <col min="3" max="3" width="8.5462962962963" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="65.90625" customWidth="1"/>
+    <col min="5" max="5" width="65.9074074074074" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="1" ht="28.8" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3001,7 +3358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3016,7 +3373,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3031,7 +3388,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3046,7 +3403,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -3061,7 +3418,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3076,7 +3433,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -3091,7 +3448,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -3106,7 +3463,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -3121,7 +3478,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3136,7 +3493,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -3151,7 +3508,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -3166,7 +3523,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -3181,7 +3538,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -3196,7 +3553,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -3211,7 +3568,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -3226,7 +3583,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3241,7 +3598,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -3256,7 +3613,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -3271,7 +3628,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -3286,7 +3643,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -3301,7 +3658,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -3316,7 +3673,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -3331,7 +3688,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
@@ -3346,7 +3703,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -3361,7 +3718,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -3376,7 +3733,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -3391,7 +3748,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
@@ -3406,7 +3763,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -3421,7 +3778,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -3436,7 +3793,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -3451,7 +3808,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -3466,7 +3823,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
@@ -3481,7 +3838,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -3496,7 +3853,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
@@ -3511,7 +3868,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
@@ -3526,7 +3883,7 @@
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
@@ -3541,7 +3898,7 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -3556,7 +3913,7 @@
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
@@ -3571,7 +3928,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
@@ -3586,7 +3943,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
@@ -3601,7 +3958,7 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
@@ -3616,7 +3973,7 @@
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
@@ -3631,7 +3988,7 @@
       </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -3646,7 +4003,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>5</v>
       </c>
@@ -3661,7 +4018,7 @@
       </c>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
@@ -3676,7 +4033,7 @@
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
@@ -3691,7 +4048,7 @@
       </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
         <v>5</v>
       </c>
@@ -3706,7 +4063,7 @@
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
         <v>5</v>
       </c>
@@ -3721,7 +4078,7 @@
       </c>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -3736,7 +4093,7 @@
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -3751,7 +4108,7 @@
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -3766,7 +4123,7 @@
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
@@ -3781,7 +4138,7 @@
       </c>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
         <v>5</v>
       </c>
@@ -3796,7 +4153,7 @@
       </c>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
         <v>5</v>
       </c>
@@ -3811,7 +4168,7 @@
       </c>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
         <v>5</v>
       </c>
@@ -3826,7 +4183,7 @@
       </c>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
         <v>5</v>
       </c>
@@ -3841,7 +4198,7 @@
       </c>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
         <v>5</v>
       </c>
@@ -3856,7 +4213,7 @@
       </c>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
         <v>5</v>
       </c>
@@ -3871,7 +4228,7 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
         <v>5</v>
       </c>
@@ -3886,7 +4243,7 @@
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
         <v>5</v>
       </c>
@@ -3901,7 +4258,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
         <v>5</v>
       </c>
@@ -3916,7 +4273,7 @@
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
         <v>5</v>
       </c>
@@ -3931,7 +4288,7 @@
       </c>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
         <v>5</v>
       </c>
@@ -3946,7 +4303,7 @@
       </c>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
         <v>5</v>
       </c>
@@ -3961,7 +4318,7 @@
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
         <v>5</v>
       </c>
@@ -3976,7 +4333,7 @@
       </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
         <v>5</v>
       </c>
@@ -3991,7 +4348,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
         <v>5</v>
       </c>
@@ -4006,7 +4363,7 @@
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
         <v>5</v>
       </c>
@@ -4021,7 +4378,7 @@
       </c>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
         <v>5</v>
       </c>
@@ -4036,7 +4393,7 @@
       </c>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
         <v>5</v>
       </c>
@@ -4051,7 +4408,7 @@
       </c>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
         <v>5</v>
       </c>
@@ -4066,7 +4423,7 @@
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
         <v>5</v>
       </c>
@@ -4081,7 +4438,7 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
         <v>5</v>
       </c>
@@ -4096,7 +4453,7 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
         <v>5</v>
       </c>
@@ -4111,7 +4468,7 @@
       </c>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
         <v>5</v>
       </c>
@@ -4126,7 +4483,7 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
         <v>5</v>
       </c>
@@ -4141,7 +4498,7 @@
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
         <v>5</v>
       </c>
@@ -4156,7 +4513,7 @@
       </c>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
         <v>5</v>
       </c>
@@ -4171,7 +4528,7 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
         <v>5</v>
       </c>
@@ -4186,7 +4543,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
         <v>5</v>
       </c>
@@ -4201,7 +4558,7 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
         <v>5</v>
       </c>
@@ -4216,7 +4573,7 @@
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
         <v>5</v>
       </c>
@@ -4231,7 +4588,7 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
         <v>5</v>
       </c>
@@ -4246,7 +4603,7 @@
       </c>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
         <v>5</v>
       </c>
@@ -4261,7 +4618,7 @@
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
         <v>5</v>
       </c>
@@ -4276,7 +4633,7 @@
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
         <v>5</v>
       </c>
@@ -4291,7 +4648,7 @@
       </c>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
         <v>5</v>
       </c>
@@ -4306,7 +4663,7 @@
       </c>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
         <v>5</v>
       </c>
@@ -4321,7 +4678,7 @@
       </c>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
         <v>5</v>
       </c>
@@ -4336,7 +4693,7 @@
       </c>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
         <v>5</v>
       </c>
@@ -4351,7 +4708,7 @@
       </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
         <v>5</v>
       </c>
@@ -4366,7 +4723,7 @@
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
         <v>5</v>
       </c>
@@ -4381,7 +4738,7 @@
       </c>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
         <v>5</v>
       </c>
@@ -4396,7 +4753,7 @@
       </c>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
         <v>5</v>
       </c>
@@ -4411,7 +4768,7 @@
       </c>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
         <v>5</v>
       </c>
@@ -4426,7 +4783,7 @@
       </c>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
@@ -4441,7 +4798,7 @@
       </c>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
         <v>5</v>
       </c>
@@ -4456,7 +4813,7 @@
       </c>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
         <v>5</v>
       </c>
@@ -4471,7 +4828,7 @@
       </c>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
         <v>5</v>
       </c>
@@ -4486,7 +4843,7 @@
       </c>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
         <v>5</v>
       </c>
@@ -4501,7 +4858,7 @@
       </c>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
         <v>5</v>
       </c>
@@ -4516,7 +4873,7 @@
       </c>
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" s="2" t="s">
         <v>5</v>
       </c>
@@ -4531,7 +4888,7 @@
       </c>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
         <v>5</v>
       </c>
@@ -4548,7 +4905,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
         <v>5</v>
       </c>
@@ -4565,7 +4922,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
         <v>5</v>
       </c>
@@ -4582,7 +4939,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" s="2" t="s">
         <v>5</v>
       </c>
@@ -4599,7 +4956,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
         <v>5</v>
       </c>
@@ -4616,7 +4973,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" s="2" t="s">
         <v>5</v>
       </c>
@@ -4633,7 +4990,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
         <v>5</v>
       </c>
@@ -4648,7 +5005,7 @@
       </c>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
         <v>5</v>
       </c>
@@ -4663,7 +5020,7 @@
       </c>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
         <v>5</v>
       </c>
@@ -4678,7 +5035,7 @@
       </c>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
         <v>5</v>
       </c>
@@ -4693,7 +5050,7 @@
       </c>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
         <v>5</v>
       </c>
@@ -4708,7 +5065,7 @@
       </c>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
         <v>5</v>
       </c>
@@ -4723,7 +5080,7 @@
       </c>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
         <v>5</v>
       </c>
@@ -4740,7 +5097,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
         <v>5</v>
       </c>
@@ -4757,7 +5114,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="2" t="s">
         <v>5</v>
       </c>
@@ -4774,7 +5131,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="2" t="s">
         <v>5</v>
       </c>
@@ -4791,7 +5148,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="2" t="s">
         <v>5</v>
       </c>
@@ -4808,7 +5165,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
         <v>5</v>
       </c>
@@ -4825,7 +5182,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="2" t="s">
         <v>5</v>
       </c>
@@ -4842,7 +5199,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="2" t="s">
         <v>5</v>
       </c>
@@ -4859,7 +5216,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="2" t="s">
         <v>5</v>
       </c>
@@ -4876,7 +5233,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="2" t="s">
         <v>5</v>
       </c>
@@ -4893,7 +5250,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="2" t="s">
         <v>5</v>
       </c>
@@ -4910,7 +5267,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="2" t="s">
         <v>5</v>
       </c>
@@ -4927,7 +5284,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="2" t="s">
         <v>5</v>
       </c>
@@ -4944,7 +5301,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="2" t="s">
         <v>5</v>
       </c>
@@ -4961,7 +5318,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="2" t="s">
         <v>5</v>
       </c>
@@ -4978,7 +5335,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="2" t="s">
         <v>5</v>
       </c>
@@ -4995,7 +5352,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="2" t="s">
         <v>5</v>
       </c>
@@ -5012,7 +5369,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="2" t="s">
         <v>5</v>
       </c>
@@ -5029,7 +5386,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="2" t="s">
         <v>5</v>
       </c>
@@ -5044,7 +5401,7 @@
       </c>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="2" t="s">
         <v>5</v>
       </c>
@@ -5059,7 +5416,7 @@
       </c>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="2" t="s">
         <v>5</v>
       </c>
@@ -5074,7 +5431,7 @@
       </c>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="2" t="s">
         <v>5</v>
       </c>
@@ -5089,7 +5446,7 @@
       </c>
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" s="2" t="s">
         <v>5</v>
       </c>
@@ -5104,7 +5461,7 @@
       </c>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" s="2" t="s">
         <v>5</v>
       </c>
@@ -5119,7 +5476,7 @@
       </c>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="2" t="s">
         <v>5</v>
       </c>
@@ -5134,7 +5491,7 @@
       </c>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" s="2" t="s">
         <v>5</v>
       </c>
@@ -5149,7 +5506,7 @@
       </c>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" s="2" t="s">
         <v>5</v>
       </c>
@@ -5164,7 +5521,7 @@
       </c>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" s="2" t="s">
         <v>5</v>
       </c>
@@ -5179,7 +5536,7 @@
       </c>
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" s="2" t="s">
         <v>5</v>
       </c>
@@ -5194,7 +5551,7 @@
       </c>
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="2" t="s">
         <v>5</v>
       </c>
@@ -5209,7 +5566,7 @@
       </c>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" s="2" t="s">
         <v>5</v>
       </c>
@@ -5224,7 +5581,7 @@
       </c>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="2" t="s">
         <v>5</v>
       </c>
@@ -5239,7 +5596,7 @@
       </c>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" s="2" t="s">
         <v>5</v>
       </c>
@@ -5254,7 +5611,7 @@
       </c>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" s="2" t="s">
         <v>5</v>
       </c>
@@ -5269,7 +5626,7 @@
       </c>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" s="2" t="s">
         <v>5</v>
       </c>
@@ -5284,7 +5641,7 @@
       </c>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" s="2" t="s">
         <v>5</v>
       </c>
@@ -5299,7 +5656,7 @@
       </c>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" s="2" t="s">
         <v>5</v>
       </c>
@@ -5307,2019 +5664,2019 @@
         <v>190</v>
       </c>
       <c r="C152" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" ht="57.6" spans="1:5">
+      <c r="A157" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" ht="57.6" spans="1:5">
+      <c r="A158" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" ht="43.2" spans="1:5">
+      <c r="A160" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="161" ht="28.8" spans="1:5">
+      <c r="A161" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="162" ht="28.8" spans="1:5">
+      <c r="A162" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="163" ht="28.8" spans="1:5">
+      <c r="A163" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="164" ht="28.8" spans="1:5">
+      <c r="A164" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="168" ht="28.8" spans="1:5">
+      <c r="A168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="169" ht="28.8" spans="1:5">
+      <c r="A169" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="170" ht="28.8" spans="1:5">
+      <c r="A170" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="171" ht="28.8" spans="1:5">
+      <c r="A171" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="172" ht="28.8" spans="1:5">
+      <c r="A172" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="178" ht="57.6" spans="1:5">
+      <c r="A178" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="179" ht="43.2" spans="1:5">
+      <c r="A179" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="184" ht="43.2" spans="1:5">
+      <c r="A184" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="185" ht="28.8" spans="1:5">
+      <c r="A185" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="195" ht="43.2" spans="1:5">
+      <c r="A195" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="C196" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E196" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C153" s="3" t="s">
+    <row r="197" ht="28.8" spans="1:5">
+      <c r="A197" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="C197" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E153" s="2"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D154" s="3" t="s">
+      <c r="E197" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E154" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D155" s="3" t="s">
+      <c r="C198" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E198" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E155" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D156" s="3" t="s">
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="E156" s="2"/>
-    </row>
-    <row r="157" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B157" s="3" t="s">
+      <c r="C199" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E200" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C157" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E157" s="5" t="s">
+    </row>
+    <row r="201" ht="43.2" spans="1:5">
+      <c r="A201" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" s="4" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D158" s="3" t="s">
+      <c r="C201" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D201" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E158" s="5" t="s">
+      <c r="E201" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D159" s="3" t="s">
+    <row r="202" ht="43.2" spans="1:5">
+      <c r="A202" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="E159" s="2"/>
-    </row>
-    <row r="160" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D160" s="3" t="s">
+      <c r="C202" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E202" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E160" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D161" s="3" t="s">
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="C203" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D203" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D162" s="3" t="s">
+      <c r="E203" s="2"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="E162" s="6" t="s">
+      <c r="C204" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D204" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D163" s="3" t="s">
+      <c r="E204" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="E163" s="5" t="s">
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" s="4" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D164" s="3" t="s">
+      <c r="C205" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E164" s="5" t="s">
+      <c r="E205" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C165" s="3" t="s">
+    <row r="206" ht="28.8" spans="1:5">
+      <c r="A206" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E206" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D165" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D166" s="3" t="s">
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D207" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E166" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D167" s="3" t="s">
+      <c r="E207" s="2"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="E167" s="5" t="s">
+      <c r="C208" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D208" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D168" s="3" t="s">
+      <c r="E208" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="E168" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D169" s="3" t="s">
+      <c r="C209" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E209" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="E169" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D170" s="3" t="s">
+    </row>
+    <row r="210" ht="158.4" spans="1:5">
+      <c r="A210" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="E170" s="5" t="s">
+      <c r="C210" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D210" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D171" s="3" t="s">
+      <c r="E210" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="211" ht="172.8" spans="1:5">
+      <c r="A211" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="E171" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D172" s="3" t="s">
+      <c r="C211" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E211" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="E172" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D173" s="3" t="s">
+    </row>
+    <row r="212" ht="100.8" spans="1:5">
+      <c r="A212" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D212" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E173" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D174" s="3" t="s">
+      <c r="E212" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E174" s="2"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C175" s="3" t="s">
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="C213" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D213" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="E175" s="2"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D176" s="3" t="s">
+      <c r="E213" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D177" s="3" t="s">
+    </row>
+    <row r="214" ht="28.8" spans="1:5">
+      <c r="A214" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="C214" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D214" s="3" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D178" s="3" t="s">
+      <c r="E214" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="E178" s="5" t="s">
+    </row>
+    <row r="215" ht="28.8" spans="1:5">
+      <c r="A215" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" s="4" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D179" s="3" t="s">
+      <c r="C215" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E215" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="E179" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D180" s="3" t="s">
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D216" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="E180" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D181" s="3" t="s">
+      <c r="E216" s="2"/>
+    </row>
+    <row r="217" ht="28.8" spans="1:5">
+      <c r="A217" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D217" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E181" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D182" s="3" t="s">
+      <c r="E217" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D183" s="3" t="s">
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="E183" s="3" t="s">
+      <c r="C218" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D218" s="3" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D184" s="3" t="s">
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D219" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="E184" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D185" s="3" t="s">
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D220" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E185" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D186" s="3" t="s">
+      <c r="E220" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="E186" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D187" s="3" t="s">
+      <c r="C221" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D221" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D188" s="3" t="s">
+      <c r="E221" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="E188" s="2"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D189" s="3" t="s">
+    </row>
+    <row r="222" ht="28.8" spans="1:5">
+      <c r="A222" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B222" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="E189" s="2"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D190" s="3" t="s">
+      <c r="C222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E190" s="2"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D191" s="3" t="s">
+      <c r="E222" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="E191" s="2"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D192" s="3" t="s">
+    </row>
+    <row r="223" ht="43.2" spans="1:5">
+      <c r="A223" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B223" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="E192" s="2"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D193" s="3" t="s">
+      <c r="C223" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D223" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E193" s="3" t="s">
+      <c r="E223" s="5" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D194" s="3" t="s">
+    <row r="224" ht="28.8" spans="1:5">
+      <c r="A224" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D224" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="E194" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D195" s="3" t="s">
+      <c r="E224" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="E195" s="5" t="s">
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" s="4" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D196" s="3" t="s">
+      <c r="C225" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E225" s="2"/>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="E196" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D197" s="3" t="s">
+      <c r="C226" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E226" s="2"/>
+    </row>
+    <row r="227" ht="43.2" spans="1:5">
+      <c r="A227" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="E197" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D198" s="3" t="s">
+      <c r="C227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D227" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="E198" s="3" t="s">
+      <c r="E227" s="5" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C199" s="3" t="s">
+    <row r="228" spans="1:5">
+      <c r="A228" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D228" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D199" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E199" s="2"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D200" s="3" t="s">
+      <c r="E228" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="229" ht="43.2" spans="1:5">
+      <c r="A229" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="E200" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D201" s="3" t="s">
+      <c r="C229" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D229" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="E201" s="5" t="s">
+      <c r="E229" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="230" ht="57.6" spans="1:5">
+      <c r="A230" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" s="4" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D202" s="3" t="s">
+      <c r="C230" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E230" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="E202" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D203" s="3" t="s">
+    </row>
+    <row r="231" ht="43.2" spans="1:5">
+      <c r="A231" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E203" s="2"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D204" s="3" t="s">
+      <c r="C231" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E231" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="E204" s="5" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D205" s="3" t="s">
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D232" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E205" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D206" s="3" t="s">
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D233" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="E206" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D207" s="3" t="s">
+      <c r="E233" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="E207" s="2"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D208" s="3" t="s">
+    </row>
+    <row r="234" ht="57.6" spans="1:5">
+      <c r="A234" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E208" s="5" t="s">
+      <c r="C234" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234" s="3" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D209" s="3" t="s">
+      <c r="E234" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="235" ht="28.8" spans="1:5">
+      <c r="A235" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="E209" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="154" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E210" s="5" t="s">
+      <c r="C235" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D235" s="3" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" ht="168" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D211" s="3" t="s">
+      <c r="E235" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="E211" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="98" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D212" s="3" t="s">
+      <c r="C236" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D236" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="E212" s="5" t="s">
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E237" s="2"/>
+    </row>
+    <row r="238" ht="43.2" spans="1:5">
+      <c r="A238" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="239" ht="43.2" spans="1:5">
+      <c r="A239" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="240" ht="129.6" spans="1:5">
+      <c r="A240" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="242" ht="187.2" spans="1:5">
+      <c r="A242" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="243" ht="43.2" spans="1:5">
+      <c r="A243" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="244" ht="230.4" spans="1:5">
+      <c r="A244" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="246" ht="86.4" spans="1:5">
+      <c r="A246" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="248" ht="28.8" spans="1:5">
+      <c r="A248" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="249" ht="144" spans="1:5">
+      <c r="A249" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="250" ht="172.8" spans="1:5">
+      <c r="A250" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="251" ht="28.8" spans="1:5">
+      <c r="A251" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E252" s="2"/>
+    </row>
+    <row r="253" ht="28.8" spans="1:5">
+      <c r="A253" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="254" ht="115.2" spans="1:5">
+      <c r="A254" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="255" ht="129.6" spans="1:5">
+      <c r="A255" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="256" ht="129.6" spans="1:5">
+      <c r="A256" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="257" ht="201.6" spans="1:5">
+      <c r="A257" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E258" s="2"/>
+    </row>
+    <row r="259" ht="57.6" spans="1:5">
+      <c r="A259" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D259" s="3" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E213" s="5" t="s">
+      <c r="E259" s="5" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E214" s="5" t="s">
+    <row r="260" spans="1:5">
+      <c r="A260" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B260" s="4" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="E215" s="5" t="s">
+      <c r="C260" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D260" s="3" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="E216" s="2"/>
-    </row>
-    <row r="217" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="E217" s="5" t="s">
+      <c r="E260" s="2"/>
+    </row>
+    <row r="261" ht="28.8" spans="1:5">
+      <c r="A261" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B261" s="4" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E218" s="2"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="E219" s="2"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="E220" s="3" t="s">
+      <c r="C261" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D261" s="3" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="E221" s="3" t="s">
+      <c r="E261" s="5" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="E222" s="6" t="s">
+    <row r="262" ht="144" spans="1:5">
+      <c r="A262" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262" s="4" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E223" s="5" t="s">
+      <c r="C262" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D262" s="3" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E224" s="5" t="s">
+      <c r="E262" s="5" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="E225" s="2"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="E226" s="2"/>
-    </row>
-    <row r="227" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E227" s="5" t="s">
+    <row r="263" ht="201.6" spans="1:5">
+      <c r="A263" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263" s="4" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="E228" s="5" t="s">
+      <c r="C263" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D263" s="3" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="E229" s="5" t="s">
+      <c r="E263" s="5" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="E230" s="5" t="s">
+    <row r="264" ht="28.8" spans="1:5">
+      <c r="A264" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264" s="4" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="E231" s="5" t="s">
+      <c r="C264" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D264" s="3" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="E232" s="2"/>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="E233" s="5" t="s">
+      <c r="E264" s="5" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="E234" s="5" t="s">
+    <row r="265" ht="72" spans="1:5">
+      <c r="A265" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B265" s="4" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E235" s="5" t="s">
+      <c r="C265" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D265" s="3" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E236" s="2"/>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="E237" s="2"/>
-    </row>
-    <row r="238" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="E238" s="5" t="s">
+      <c r="E265" s="5" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A239" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D239" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="E239" s="5" t="s">
+    <row r="266" ht="28.8" spans="1:5">
+      <c r="A266" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B266" s="3" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" ht="126" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D240" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="E240" s="5" t="s">
+      <c r="C266" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D266" s="3" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="E241" s="5" t="s">
+      <c r="E266" s="5" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="182" x14ac:dyDescent="0.25">
-      <c r="A242" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="E242" s="5" t="s">
+    <row r="267" ht="28.8" spans="1:5">
+      <c r="A267" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B267" s="4" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A243" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B243" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E243" s="5" t="s">
+      <c r="C267" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D267" s="3" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" ht="224" x14ac:dyDescent="0.25">
-      <c r="A244" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="E244" s="5" t="s">
+      <c r="E267" s="5" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B245" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="E245" s="5" t="s">
+    <row r="268" ht="216" spans="1:5">
+      <c r="A268" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B268" s="4" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" ht="84" x14ac:dyDescent="0.25">
-      <c r="A246" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="E246" s="5" t="s">
+      <c r="C268" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D268" s="3" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="E247" s="5" t="s">
+      <c r="E268" s="5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A248" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="E248" s="5" t="s">
+    <row r="269" ht="43.2" spans="1:5">
+      <c r="A269" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B269" s="4" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" ht="140" x14ac:dyDescent="0.25">
-      <c r="A249" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="E249" s="5" t="s">
+      <c r="C269" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D269" s="3" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" ht="168" x14ac:dyDescent="0.25">
-      <c r="A250" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="E250" s="5" t="s">
+      <c r="E269" s="5" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A251" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="E251" s="5" t="s">
+    <row r="270" ht="172.8" spans="1:5">
+      <c r="A270" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B270" s="4" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="E252" s="2"/>
-    </row>
-    <row r="253" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B253" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="E253" s="5" t="s">
+      <c r="C270" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D270" s="3" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" ht="112" x14ac:dyDescent="0.25">
-      <c r="A254" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="E254" s="5" t="s">
+      <c r="E270" s="5" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="126" x14ac:dyDescent="0.25">
-      <c r="A255" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="E255" s="5" t="s">
+    <row r="271" spans="1:5">
+      <c r="A271" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B271" s="4" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" ht="126" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E256" s="5" t="s">
+      <c r="C271" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D271" s="3" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" ht="196" x14ac:dyDescent="0.25">
-      <c r="A257" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="E257" s="5" t="s">
+      <c r="E271" s="2"/>
+    </row>
+    <row r="272" ht="115.2" spans="1:5">
+      <c r="A272" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B272" s="3" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B258" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="E258" s="2"/>
-    </row>
-    <row r="259" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A259" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D259" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="E259" s="5" t="s">
+      <c r="C272" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D272" s="3" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="D260" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="E260" s="2"/>
-    </row>
-    <row r="261" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A261" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B261" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D261" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E261" s="5" t="s">
+      <c r="E272" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="140" x14ac:dyDescent="0.25">
-      <c r="A262" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="E262" s="5" t="s">
+    <row r="273" ht="57.6" spans="1:5">
+      <c r="A273" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B273" s="4" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" ht="196" x14ac:dyDescent="0.25">
-      <c r="A263" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B263" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="E263" s="5" t="s">
+      <c r="C273" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D273" s="3" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A264" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="E264" s="5" t="s">
+      <c r="E273" s="5" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="70" x14ac:dyDescent="0.25">
-      <c r="A265" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="E265" s="5" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E266" s="5" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A267" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="E267" s="5" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A268" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D268" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="E268" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A269" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="E269" s="5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" ht="168" x14ac:dyDescent="0.25">
-      <c r="A270" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B270" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="E270" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D271" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E271" s="2"/>
-    </row>
-    <row r="272" spans="1:5" ht="112" x14ac:dyDescent="0.25">
-      <c r="A272" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E272" s="5" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A273" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B273" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="E273" s="5" t="s">
-        <v>535</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/301 Indicativo - Presente.xlsx
+++ b/excel/301 Indicativo - Presente.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="15540"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1972,7 +1972,7 @@
     <t>continuare</t>
   </si>
   <si>
-    <t>coutinuo</t>
+    <t>continuo</t>
   </si>
   <si>
     <t>intervenire</t>
@@ -2341,7 +2341,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2354,13 +2354,6 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2840,46 +2833,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2891,101 +2887,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2995,14 +2988,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3328,20 +3315,20 @@
   <sheetPr/>
   <dimension ref="A1:E273"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A252" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A250" workbookViewId="0">
       <selection activeCell="D253" sqref="D253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.1759259259259" customWidth="1"/>
-    <col min="2" max="2" width="17.5462962962963" customWidth="1"/>
-    <col min="3" max="3" width="8.5462962962963" customWidth="1"/>
+    <col min="1" max="1" width="24.175" customWidth="1"/>
+    <col min="2" max="2" width="17.55" customWidth="1"/>
+    <col min="3" max="3" width="8.55" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="65.9074074074074" customWidth="1"/>
+    <col min="5" max="5" width="65.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:5">
+    <row r="1" ht="27" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5606,7 +5593,7 @@
       <c r="C148" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="2" t="s">
         <v>186</v>
       </c>
       <c r="E148" s="2"/>
@@ -5660,16 +5647,16 @@
       <c r="A152" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D152" s="3" t="s">
+      <c r="C152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="2" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5677,13 +5664,13 @@
       <c r="A153" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D153" s="3" t="s">
+      <c r="C153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>194</v>
       </c>
       <c r="E153" s="2"/>
@@ -5692,16 +5679,16 @@
       <c r="A154" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D154" s="3" t="s">
+      <c r="C154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="E154" s="2" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5709,16 +5696,16 @@
       <c r="A155" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C155" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D155" s="3" t="s">
+      <c r="C155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="E155" s="2" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5726,48 +5713,48 @@
       <c r="A156" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D156" s="3" t="s">
+      <c r="C156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>202</v>
       </c>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" ht="57.6" spans="1:5">
+    <row r="157" ht="54" spans="1:5">
       <c r="A157" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D157" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E157" s="5" t="s">
+      <c r="E157" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="158" ht="57.6" spans="1:5">
+    <row r="158" ht="54" spans="1:5">
       <c r="A158" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D158" s="3" t="s">
+      <c r="C158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E158" s="5" t="s">
+      <c r="E158" s="4" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5775,99 +5762,99 @@
       <c r="A159" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C159" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D159" s="3" t="s">
+      <c r="C159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>210</v>
       </c>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" ht="43.2" spans="1:5">
+    <row r="160" ht="40.5" spans="1:5">
       <c r="A160" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D160" s="3" t="s">
+      <c r="C160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E160" s="5" t="s">
+      <c r="E160" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="161" ht="28.8" spans="1:5">
+    <row r="161" ht="27" spans="1:5">
       <c r="A161" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161" s="3" t="s">
+      <c r="C161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="E161" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="162" ht="28.8" spans="1:5">
+    <row r="162" ht="27" spans="1:5">
       <c r="A162" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D162" s="3" t="s">
+      <c r="C162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E162" s="6" t="s">
+      <c r="E162" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="163" ht="28.8" spans="1:5">
+    <row r="163" ht="27" spans="1:5">
       <c r="A163" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C163" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D163" s="3" t="s">
+      <c r="C163" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E163" s="5" t="s">
+      <c r="E163" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="164" ht="28.8" spans="1:5">
+    <row r="164" ht="27" spans="1:5">
       <c r="A164" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C164" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D164" s="3" t="s">
+      <c r="C164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E164" s="5" t="s">
+      <c r="E164" s="4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5875,16 +5862,16 @@
       <c r="A165" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D165" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E165" s="5" t="s">
+      <c r="E165" s="4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5892,16 +5879,16 @@
       <c r="A166" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C166" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D166" s="3" t="s">
+      <c r="C166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E166" s="5" t="s">
+      <c r="E166" s="4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5909,101 +5896,101 @@
       <c r="A167" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C167" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D167" s="3" t="s">
+      <c r="C167" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E167" s="5" t="s">
+      <c r="E167" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="168" ht="28.8" spans="1:5">
+    <row r="168" ht="27" spans="1:5">
       <c r="A168" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C168" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D168" s="3" t="s">
+      <c r="C168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E168" s="5" t="s">
+      <c r="E168" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="169" ht="28.8" spans="1:5">
+    <row r="169" ht="27" spans="1:5">
       <c r="A169" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C169" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D169" s="3" t="s">
+      <c r="C169" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E169" s="5" t="s">
+      <c r="E169" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="170" ht="28.8" spans="1:5">
+    <row r="170" ht="27" spans="1:5">
       <c r="A170" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C170" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D170" s="3" t="s">
+      <c r="C170" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E170" s="5" t="s">
+      <c r="E170" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="171" ht="28.8" spans="1:5">
+    <row r="171" spans="1:5">
       <c r="A171" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C171" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D171" s="3" t="s">
+      <c r="C171" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E171" s="5" t="s">
+      <c r="E171" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="172" ht="28.8" spans="1:5">
+    <row r="172" ht="27" spans="1:5">
       <c r="A172" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C172" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D172" s="3" t="s">
+      <c r="C172" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E172" s="5" t="s">
+      <c r="E172" s="4" t="s">
         <v>249</v>
       </c>
     </row>
@@ -6011,16 +5998,16 @@
       <c r="A173" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C173" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D173" s="3" t="s">
+      <c r="C173" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E173" s="5" t="s">
+      <c r="E173" s="4" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6028,13 +6015,13 @@
       <c r="A174" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="D174" s="2" t="s">
         <v>254</v>
       </c>
       <c r="E174" s="2"/>
@@ -6043,13 +6030,13 @@
       <c r="A175" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D175" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E175" s="2"/>
@@ -6058,13 +6045,13 @@
       <c r="A176" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C176" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D176" s="3" t="s">
+      <c r="C176" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>258</v>
       </c>
       <c r="E176" s="2"/>
@@ -6073,50 +6060,50 @@
       <c r="A177" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C177" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D177" s="3" t="s">
+      <c r="C177" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="E177" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="178" ht="57.6" spans="1:5">
+    <row r="178" ht="54" spans="1:5">
       <c r="A178" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C178" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D178" s="3" t="s">
+      <c r="C178" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E178" s="5" t="s">
+      <c r="E178" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="179" ht="43.2" spans="1:5">
+    <row r="179" ht="40.5" spans="1:5">
       <c r="A179" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C179" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D179" s="3" t="s">
+      <c r="C179" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E179" s="5" t="s">
+      <c r="E179" s="4" t="s">
         <v>267</v>
       </c>
     </row>
@@ -6124,16 +6111,16 @@
       <c r="A180" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C180" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D180" s="3" t="s">
+      <c r="C180" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E180" s="3" t="s">
+      <c r="E180" s="2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6141,16 +6128,16 @@
       <c r="A181" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="D181" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E181" s="3" t="s">
+      <c r="E181" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -6158,13 +6145,13 @@
       <c r="A182" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C182" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D182" s="3" t="s">
+      <c r="C182" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>275</v>
       </c>
       <c r="E182" s="2"/>
@@ -6173,50 +6160,50 @@
       <c r="A183" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C183" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D183" s="3" t="s">
+      <c r="C183" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E183" s="3" t="s">
+      <c r="E183" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="184" ht="43.2" spans="1:5">
+    <row r="184" ht="40.5" spans="1:5">
       <c r="A184" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C184" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D184" s="3" t="s">
+      <c r="C184" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E184" s="5" t="s">
+      <c r="E184" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="185" ht="28.8" spans="1:5">
+    <row r="185" ht="27" spans="1:5">
       <c r="A185" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C185" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D185" s="3" t="s">
+      <c r="C185" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E185" s="5" t="s">
+      <c r="E185" s="4" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6224,16 +6211,16 @@
       <c r="A186" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C186" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D186" s="3" t="s">
+      <c r="C186" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="E186" s="2" t="s">
         <v>287</v>
       </c>
     </row>
@@ -6241,13 +6228,13 @@
       <c r="A187" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C187" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D187" s="3" t="s">
+      <c r="C187" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>289</v>
       </c>
       <c r="E187" s="2"/>
@@ -6256,13 +6243,13 @@
       <c r="A188" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C188" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D188" s="3" t="s">
+      <c r="C188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>291</v>
       </c>
       <c r="E188" s="2"/>
@@ -6271,13 +6258,13 @@
       <c r="A189" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C189" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D189" s="3" t="s">
+      <c r="C189" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>293</v>
       </c>
       <c r="E189" s="2"/>
@@ -6286,13 +6273,13 @@
       <c r="A190" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C190" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D190" s="3" t="s">
+      <c r="C190" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>295</v>
       </c>
       <c r="E190" s="2"/>
@@ -6301,13 +6288,13 @@
       <c r="A191" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C191" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D191" s="3" t="s">
+      <c r="C191" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>297</v>
       </c>
       <c r="E191" s="2"/>
@@ -6316,13 +6303,13 @@
       <c r="A192" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C192" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D192" s="3" t="s">
+      <c r="C192" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>299</v>
       </c>
       <c r="E192" s="2"/>
@@ -6331,16 +6318,16 @@
       <c r="A193" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C193" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D193" s="3" t="s">
+      <c r="C193" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E193" s="3" t="s">
+      <c r="E193" s="2" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6348,33 +6335,33 @@
       <c r="A194" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C194" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D194" s="3" t="s">
+      <c r="C194" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E194" s="3" t="s">
+      <c r="E194" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="195" ht="43.2" spans="1:5">
+    <row r="195" ht="40.5" spans="1:5">
       <c r="A195" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C195" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D195" s="3" t="s">
+      <c r="C195" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E195" s="5" t="s">
+      <c r="E195" s="4" t="s">
         <v>308</v>
       </c>
     </row>
@@ -6382,33 +6369,33 @@
       <c r="A196" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C196" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D196" s="3" t="s">
+      <c r="C196" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E196" s="3" t="s">
+      <c r="E196" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="197" ht="28.8" spans="1:5">
+    <row r="197" ht="27" spans="1:5">
       <c r="A197" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C197" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D197" s="3" t="s">
+      <c r="C197" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E197" s="5" t="s">
+      <c r="E197" s="4" t="s">
         <v>314</v>
       </c>
     </row>
@@ -6416,16 +6403,16 @@
       <c r="A198" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C198" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D198" s="3" t="s">
+      <c r="C198" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E198" s="3" t="s">
+      <c r="E198" s="2" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6433,13 +6420,13 @@
       <c r="A199" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="D199" s="2" t="s">
         <v>319</v>
       </c>
       <c r="E199" s="2"/>
@@ -6448,50 +6435,50 @@
       <c r="A200" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C200" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D200" s="3" t="s">
+      <c r="C200" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E200" s="3" t="s">
+      <c r="E200" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="201" ht="43.2" spans="1:5">
+    <row r="201" ht="40.5" spans="1:5">
       <c r="A201" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C201" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D201" s="3" t="s">
+      <c r="C201" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E201" s="5" t="s">
+      <c r="E201" s="4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="202" ht="43.2" spans="1:5">
+    <row r="202" ht="40.5" spans="1:5">
       <c r="A202" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C202" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D202" s="3" t="s">
+      <c r="C202" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E202" s="5" t="s">
+      <c r="E202" s="4" t="s">
         <v>328</v>
       </c>
     </row>
@@ -6499,13 +6486,13 @@
       <c r="A203" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C203" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D203" s="3" t="s">
+      <c r="C203" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>330</v>
       </c>
       <c r="E203" s="2"/>
@@ -6514,16 +6501,16 @@
       <c r="A204" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C204" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D204" s="3" t="s">
+      <c r="C204" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E204" s="5" t="s">
+      <c r="E204" s="4" t="s">
         <v>333</v>
       </c>
     </row>
@@ -6531,33 +6518,33 @@
       <c r="A205" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C205" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D205" s="3" t="s">
+      <c r="C205" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>335</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="206" ht="28.8" spans="1:5">
+    <row r="206" ht="27" spans="1:5">
       <c r="A206" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C206" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D206" s="3" t="s">
+      <c r="C206" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E206" s="5" t="s">
+      <c r="E206" s="4" t="s">
         <v>339</v>
       </c>
     </row>
@@ -6565,13 +6552,13 @@
       <c r="A207" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B207" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C207" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D207" s="3" t="s">
+      <c r="C207" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>341</v>
       </c>
       <c r="E207" s="2"/>
@@ -6580,16 +6567,16 @@
       <c r="A208" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B208" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C208" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D208" s="3" t="s">
+      <c r="C208" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E208" s="5" t="s">
+      <c r="E208" s="4" t="s">
         <v>344</v>
       </c>
     </row>
@@ -6597,67 +6584,67 @@
       <c r="A209" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B209" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C209" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D209" s="3" t="s">
+      <c r="C209" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E209" s="3" t="s">
+      <c r="E209" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="210" ht="158.4" spans="1:5">
+    <row r="210" ht="148.5" spans="1:5">
       <c r="A210" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C210" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D210" s="3" t="s">
+      <c r="C210" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E210" s="5" t="s">
+      <c r="E210" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="211" ht="172.8" spans="1:5">
+    <row r="211" ht="162" spans="1:5">
       <c r="A211" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C211" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D211" s="3" t="s">
+      <c r="C211" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E211" s="5" t="s">
+      <c r="E211" s="4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="212" ht="100.8" spans="1:5">
+    <row r="212" ht="94.5" spans="1:5">
       <c r="A212" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C212" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D212" s="3" t="s">
+      <c r="C212" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E212" s="5" t="s">
+      <c r="E212" s="4" t="s">
         <v>356</v>
       </c>
     </row>
@@ -6665,50 +6652,50 @@
       <c r="A213" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B213" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C213" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D213" s="3" t="s">
+      <c r="C213" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E213" s="5" t="s">
+      <c r="E213" s="4" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="214" ht="28.8" spans="1:5">
+    <row r="214" ht="27" spans="1:5">
       <c r="A214" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C214" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D214" s="3" t="s">
+      <c r="C214" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E214" s="5" t="s">
+      <c r="E214" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="215" ht="28.8" spans="1:5">
+    <row r="215" ht="27" spans="1:5">
       <c r="A215" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B215" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C215" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D215" s="3" t="s">
+      <c r="C215" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E215" s="5" t="s">
+      <c r="E215" s="4" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6716,31 +6703,31 @@
       <c r="A216" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C216" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D216" s="3" t="s">
+      <c r="C216" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>367</v>
       </c>
       <c r="E216" s="2"/>
     </row>
-    <row r="217" ht="28.8" spans="1:5">
+    <row r="217" ht="27" spans="1:5">
       <c r="A217" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B217" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C217" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D217" s="3" t="s">
+      <c r="C217" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E217" s="5" t="s">
+      <c r="E217" s="4" t="s">
         <v>370</v>
       </c>
     </row>
@@ -6748,13 +6735,13 @@
       <c r="A218" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B218" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C218" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D218" s="3" t="s">
+      <c r="C218" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>372</v>
       </c>
       <c r="E218" s="2"/>
@@ -6763,13 +6750,13 @@
       <c r="A219" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B219" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C219" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D219" s="3" t="s">
+      <c r="C219" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>374</v>
       </c>
       <c r="E219" s="2"/>
@@ -6778,16 +6765,16 @@
       <c r="A220" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B220" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C220" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D220" s="3" t="s">
+      <c r="C220" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E220" s="3" t="s">
+      <c r="E220" s="2" t="s">
         <v>377</v>
       </c>
     </row>
@@ -6795,67 +6782,67 @@
       <c r="A221" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B221" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D221" s="3" t="s">
+      <c r="D221" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="E221" s="3" t="s">
+      <c r="E221" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="222" ht="28.8" spans="1:5">
+    <row r="222" ht="27" spans="1:5">
       <c r="A222" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B222" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D222" s="3" t="s">
+      <c r="D222" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E222" s="6" t="s">
+      <c r="E222" s="4" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="223" ht="43.2" spans="1:5">
+    <row r="223" ht="40.5" spans="1:5">
       <c r="A223" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B223" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C223" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D223" s="3" t="s">
+      <c r="C223" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E223" s="5" t="s">
+      <c r="E223" s="4" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="224" ht="28.8" spans="1:5">
+    <row r="224" ht="27" spans="1:5">
       <c r="A224" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B224" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C224" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D224" s="3" t="s">
+      <c r="C224" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E224" s="5" t="s">
+      <c r="E224" s="4" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6863,13 +6850,13 @@
       <c r="A225" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B225" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C225" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D225" s="3" t="s">
+      <c r="C225" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>391</v>
       </c>
       <c r="E225" s="2"/>
@@ -6878,31 +6865,31 @@
       <c r="A226" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="B226" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C226" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D226" s="3" t="s">
+      <c r="C226" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>393</v>
       </c>
       <c r="E226" s="2"/>
     </row>
-    <row r="227" ht="43.2" spans="1:5">
+    <row r="227" ht="40.5" spans="1:5">
       <c r="A227" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B227" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D227" s="3" t="s">
+      <c r="D227" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E227" s="5" t="s">
+      <c r="E227" s="4" t="s">
         <v>396</v>
       </c>
     </row>
@@ -6910,67 +6897,67 @@
       <c r="A228" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="B228" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C228" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D228" s="3" t="s">
+      <c r="C228" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E228" s="5" t="s">
+      <c r="E228" s="4" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="229" ht="43.2" spans="1:5">
+    <row r="229" ht="40.5" spans="1:5">
       <c r="A229" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B229" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C229" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D229" s="3" t="s">
+      <c r="C229" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E229" s="5" t="s">
+      <c r="E229" s="4" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="230" ht="57.6" spans="1:5">
+    <row r="230" ht="54" spans="1:5">
       <c r="A230" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="C230" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D230" s="3" t="s">
+      <c r="C230" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="E230" s="5" t="s">
+      <c r="E230" s="4" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="231" ht="43.2" spans="1:5">
+    <row r="231" ht="40.5" spans="1:5">
       <c r="A231" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B231" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C231" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D231" s="3" t="s">
+      <c r="C231" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E231" s="5" t="s">
+      <c r="E231" s="4" t="s">
         <v>408</v>
       </c>
     </row>
@@ -6978,13 +6965,13 @@
       <c r="A232" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B232" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C232" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D232" s="3" t="s">
+      <c r="C232" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>410</v>
       </c>
       <c r="E232" s="2"/>
@@ -6993,50 +6980,50 @@
       <c r="A233" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B233" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C233" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D233" s="3" t="s">
+      <c r="C233" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E233" s="5" t="s">
+      <c r="E233" s="4" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="234" ht="57.6" spans="1:5">
+    <row r="234" ht="54" spans="1:5">
       <c r="A234" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B234" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="C234" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D234" s="3" t="s">
+      <c r="D234" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E234" s="5" t="s">
+      <c r="E234" s="4" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="235" ht="28.8" spans="1:5">
+    <row r="235" ht="27" spans="1:5">
       <c r="A235" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B235" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C235" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D235" s="3" t="s">
+      <c r="C235" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D235" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E235" s="5" t="s">
+      <c r="E235" s="4" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7044,13 +7031,13 @@
       <c r="A236" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="B236" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C236" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D236" s="3" t="s">
+      <c r="C236" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>421</v>
       </c>
       <c r="E236" s="2"/>
@@ -7059,65 +7046,65 @@
       <c r="A237" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="B237" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C237" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D237" s="3" t="s">
+      <c r="C237" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>423</v>
       </c>
       <c r="E237" s="2"/>
     </row>
-    <row r="238" ht="43.2" spans="1:5">
+    <row r="238" ht="40.5" spans="1:5">
       <c r="A238" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B238" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C238" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D238" s="3" t="s">
+      <c r="C238" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E238" s="5" t="s">
+      <c r="E238" s="4" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="239" ht="43.2" spans="1:5">
+    <row r="239" ht="40.5" spans="1:5">
       <c r="A239" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B239" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="C239" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D239" s="3" t="s">
+      <c r="C239" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E239" s="5" t="s">
+      <c r="E239" s="4" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="240" ht="129.6" spans="1:5">
+    <row r="240" ht="121.5" spans="1:5">
       <c r="A240" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B240" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C240" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D240" s="3" t="s">
+      <c r="C240" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E240" s="5" t="s">
+      <c r="E240" s="4" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7125,67 +7112,67 @@
       <c r="A241" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="B241" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="C241" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D241" s="3" t="s">
+      <c r="D241" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E241" s="5" t="s">
+      <c r="E241" s="4" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="242" ht="187.2" spans="1:5">
+    <row r="242" ht="175.5" spans="1:5">
       <c r="A242" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B242" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C242" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D242" s="3" t="s">
+      <c r="C242" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E242" s="5" t="s">
+      <c r="E242" s="4" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="243" ht="43.2" spans="1:5">
+    <row r="243" ht="40.5" spans="1:5">
       <c r="A243" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="B243" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C243" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D243" s="3" t="s">
+      <c r="D243" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="E243" s="5" t="s">
+      <c r="E243" s="4" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="244" ht="230.4" spans="1:5">
+    <row r="244" ht="216" spans="1:5">
       <c r="A244" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="B244" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C244" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D244" s="3" t="s">
+      <c r="C244" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E244" s="5" t="s">
+      <c r="E244" s="4" t="s">
         <v>444</v>
       </c>
     </row>
@@ -7193,33 +7180,33 @@
       <c r="A245" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B245" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C245" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D245" s="3" t="s">
+      <c r="C245" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="E245" s="5" t="s">
+      <c r="E245" s="4" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="246" ht="86.4" spans="1:5">
+    <row r="246" ht="81" spans="1:5">
       <c r="A246" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B246" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C246" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D246" s="3" t="s">
+      <c r="C246" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="E246" s="5" t="s">
+      <c r="E246" s="4" t="s">
         <v>450</v>
       </c>
     </row>
@@ -7227,84 +7214,84 @@
       <c r="A247" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="B247" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C247" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D247" s="3" t="s">
+      <c r="C247" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="E247" s="5" t="s">
+      <c r="E247" s="4" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="248" ht="28.8" spans="1:5">
+    <row r="248" ht="27" spans="1:5">
       <c r="A248" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B248" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C248" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D248" s="3" t="s">
+      <c r="C248" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D248" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E248" s="5" t="s">
+      <c r="E248" s="4" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="249" ht="144" spans="1:5">
+    <row r="249" ht="135" spans="1:5">
       <c r="A249" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C249" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D249" s="3" t="s">
+      <c r="D249" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="E249" s="5" t="s">
+      <c r="E249" s="4" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="250" ht="172.8" spans="1:5">
+    <row r="250" ht="162" spans="1:5">
       <c r="A250" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="B250" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C250" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D250" s="3" t="s">
+      <c r="C250" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="E250" s="5" t="s">
+      <c r="E250" s="4" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="251" ht="28.8" spans="1:5">
+    <row r="251" ht="27" spans="1:5">
       <c r="A251" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="B251" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C251" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D251" s="3" t="s">
+      <c r="C251" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D251" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="E251" s="5" t="s">
+      <c r="E251" s="4" t="s">
         <v>465</v>
       </c>
     </row>
@@ -7312,99 +7299,99 @@
       <c r="A252" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="B252" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C252" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D252" s="3" t="s">
+      <c r="D252" s="2" t="s">
         <v>467</v>
       </c>
       <c r="E252" s="2"/>
     </row>
-    <row r="253" ht="28.8" spans="1:5">
+    <row r="253" ht="27" spans="1:5">
       <c r="A253" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B253" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C253" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D253" s="3" t="s">
+      <c r="C253" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="E253" s="5" t="s">
+      <c r="E253" s="4" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="254" ht="115.2" spans="1:5">
+    <row r="254" ht="94.5" spans="1:5">
       <c r="A254" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B254" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C254" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D254" s="3" t="s">
+      <c r="C254" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D254" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E254" s="5" t="s">
+      <c r="E254" s="4" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="255" ht="129.6" spans="1:5">
+    <row r="255" ht="108" spans="1:5">
       <c r="A255" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B255" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C255" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D255" s="3" t="s">
+      <c r="C255" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D255" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E255" s="5" t="s">
+      <c r="E255" s="4" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="256" ht="129.6" spans="1:5">
+    <row r="256" ht="121.5" spans="1:5">
       <c r="A256" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B256" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C256" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D256" s="3" t="s">
+      <c r="C256" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D256" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="E256" s="5" t="s">
+      <c r="E256" s="4" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="257" ht="201.6" spans="1:5">
+    <row r="257" ht="175.5" spans="1:5">
       <c r="A257" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="B257" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C257" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D257" s="3" t="s">
+      <c r="C257" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D257" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="E257" s="5" t="s">
+      <c r="E257" s="4" t="s">
         <v>482</v>
       </c>
     </row>
@@ -7412,31 +7399,31 @@
       <c r="A258" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="B258" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="C258" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D258" s="3" t="s">
+      <c r="C258" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D258" s="2" t="s">
         <v>484</v>
       </c>
       <c r="E258" s="2"/>
     </row>
-    <row r="259" ht="57.6" spans="1:5">
+    <row r="259" ht="54" spans="1:5">
       <c r="A259" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="B259" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C259" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D259" s="3" t="s">
+      <c r="C259" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D259" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E259" s="5" t="s">
+      <c r="E259" s="4" t="s">
         <v>487</v>
       </c>
     </row>
@@ -7444,184 +7431,184 @@
       <c r="A260" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="B260" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C260" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D260" s="3" t="s">
+      <c r="D260" s="2" t="s">
         <v>489</v>
       </c>
       <c r="E260" s="2"/>
     </row>
-    <row r="261" ht="28.8" spans="1:5">
+    <row r="261" ht="27" spans="1:5">
       <c r="A261" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B261" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C261" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D261" s="3" t="s">
+      <c r="C261" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D261" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="E261" s="5" t="s">
+      <c r="E261" s="4" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="262" ht="144" spans="1:5">
+    <row r="262" ht="135" spans="1:5">
       <c r="A262" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B262" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C262" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D262" s="3" t="s">
+      <c r="C262" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D262" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="E262" s="5" t="s">
+      <c r="E262" s="4" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="263" ht="201.6" spans="1:5">
+    <row r="263" ht="189" spans="1:5">
       <c r="A263" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="B263" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C263" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D263" s="3" t="s">
+      <c r="C263" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D263" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E263" s="5" t="s">
+      <c r="E263" s="4" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="264" ht="28.8" spans="1:5">
+    <row r="264" ht="27" spans="1:5">
       <c r="A264" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="B264" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C264" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D264" s="3" t="s">
+      <c r="C264" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D264" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="E264" s="5" t="s">
+      <c r="E264" s="4" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="265" ht="72" spans="1:5">
+    <row r="265" ht="67.5" spans="1:5">
       <c r="A265" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="B265" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="C265" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D265" s="3" t="s">
+      <c r="C265" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D265" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="E265" s="5" t="s">
+      <c r="E265" s="4" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="266" ht="28.8" spans="1:5">
+    <row r="266" ht="27" spans="1:5">
       <c r="A266" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C266" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D266" s="3" t="s">
+      <c r="C266" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D266" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="E266" s="5" t="s">
+      <c r="E266" s="4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="267" ht="28.8" spans="1:5">
+    <row r="267" ht="27" spans="1:5">
       <c r="A267" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B267" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="C267" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D267" s="3" t="s">
+      <c r="C267" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D267" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="E267" s="5" t="s">
+      <c r="E267" s="4" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="268" ht="216" spans="1:5">
+    <row r="268" ht="202.5" spans="1:5">
       <c r="A268" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="B268" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="C268" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D268" s="3" t="s">
+      <c r="C268" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D268" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E268" s="5" t="s">
+      <c r="E268" s="4" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="269" ht="43.2" spans="1:5">
+    <row r="269" ht="40.5" spans="1:5">
       <c r="A269" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B269" s="4" t="s">
+      <c r="B269" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C269" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D269" s="3" t="s">
+      <c r="C269" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D269" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E269" s="5" t="s">
+      <c r="E269" s="4" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="270" ht="172.8" spans="1:5">
+    <row r="270" ht="162" spans="1:5">
       <c r="A270" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B270" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="C270" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D270" s="3" t="s">
+      <c r="D270" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E270" s="5" t="s">
+      <c r="E270" s="4" t="s">
         <v>519</v>
       </c>
     </row>
@@ -7629,48 +7616,48 @@
       <c r="A271" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B271" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="C271" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D271" s="3" t="s">
+      <c r="D271" s="2" t="s">
         <v>521</v>
       </c>
       <c r="E271" s="2"/>
     </row>
-    <row r="272" ht="115.2" spans="1:5">
+    <row r="272" ht="108" spans="1:5">
       <c r="A272" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C272" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D272" s="3" t="s">
+      <c r="C272" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D272" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E272" s="5" t="s">
+      <c r="E272" s="4" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="273" ht="57.6" spans="1:5">
+    <row r="273" ht="54" spans="1:5">
       <c r="A273" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="B273" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C273" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D273" s="3" t="s">
+      <c r="C273" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D273" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="E273" s="5" t="s">
+      <c r="E273" s="4" t="s">
         <v>527</v>
       </c>
     </row>

--- a/excel/301 Indicativo - Presente.xlsx
+++ b/excel/301 Indicativo - Presente.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carol\0-Coding\quiz-mini-springboot\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="535">
   <si>
     <t>类别名称</t>
   </si>
@@ -587,16 +592,486 @@
   </si>
   <si>
     <t>sembrare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leggere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pubblicare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lavorare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aumentare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aiutare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>appartenere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rappresentare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trattarsi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>eseguire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rilassarsi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentirsi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>esistere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>diventare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>terminare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>festeggiare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avvenire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>impedire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scomparire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>contattare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>conoscere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>studiare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trovare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>posizionare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>riflettere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>collegare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>programmare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>apprezzare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ricevere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>riuscire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrarre</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>condividere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>riportare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vedere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>incontrare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>invitare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiudere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mostrare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrivare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>durare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>applaudire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquistare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vincere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>provare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dedicare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>realizzare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rompersi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pensare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mentire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sostituire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reagire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>desiderare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>inseguire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>frequentare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>occorrere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>affrontare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>possedere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seguire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>inserire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniziare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>illustrare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guardare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>passare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>costringere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spiegare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ringraziare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>raccontare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>partecipare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prendere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cominciare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accogliere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bastare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sottolineare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>raggiungere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avvicinarsi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfruttare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>augurarsi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>riproporre</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ricordare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>viaggiare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addormentarsi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>squillare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggerire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>immaginare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>assistere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rivolgere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scattare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alzare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accendere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>toccarsi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorridere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>occuparsi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accorgersi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>continuare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>intervenire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ripensare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decidere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ospitare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spingere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cambiare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>candidarsi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>parlare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>provenire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>svolgere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>concludere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>giungere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>evidenziare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>consentire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>muoversi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>registrare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>controllare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>imparare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>permettere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>s</t>
     </r>
     <r>
@@ -604,26 +1079,21 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>embra</t>
     </r>
-  </si>
-  <si>
-    <t>Sembra che la notizia sia vera.这消息好像是真的。</t>
-  </si>
-  <si>
-    <t>leggere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lei/lui</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>legge</t>
-  </si>
-  <si>
-    <t>emergere</t>
-  </si>
-  <si>
-    <t>emerge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -631,6 +1101,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -651,42 +1122,48 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>: Dal buio emersero due loschi individui.黑暗中出现两个形迹可疑的人</t>
     </r>
-  </si>
-  <si>
-    <t>pubblicare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>emerge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pubblicare una notizia发表一条消息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>pubblica</t>
-  </si>
-  <si>
-    <t>pubblicare una notizia发表一条消息</t>
-  </si>
-  <si>
-    <t>lavorare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lavora</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>noi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>osserviamo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>integrare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>osservare</t>
-  </si>
-  <si>
-    <t>osserviamo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">(1) 观察, 观测; 注视, 监视：
 osservare una ferita 观察伤口
 </t>
@@ -696,6 +1173,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -716,6 +1194,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -737,6 +1216,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -752,39 +1232,24 @@
       </rPr>
       <t>遵守纪律</t>
     </r>
-  </si>
-  <si>
-    <t>aumentare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>aumenta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>v.tr 增加 mi hanno aumentato lo stipendio 她们给我涨工资了
  （人是主语，人来做增加这个动作）
 v.intr 增加 la popolazione è aumentata notevolmente 人口显著增加了（增长的东西是主语）</t>
-  </si>
-  <si>
-    <t>aiutare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>aiuta</t>
-  </si>
-  <si>
-    <t>appartenere</t>
-  </si>
-  <si>
-    <t>appartiene</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>v.intr.属于</t>
     </r>
     <r>
@@ -792,6 +1257,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -813,6 +1279,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -828,32 +1295,27 @@
       </rPr>
       <t>那本字典是学习图书馆的</t>
     </r>
-  </si>
-  <si>
-    <t>rappresentare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>appartiene</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>rappresenta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>象征，体现，表示：
 Il verde rappresenta la speranza. 绿色象征希望。</t>
-  </si>
-  <si>
-    <t>trattarsi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>si tratta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>si tratta di...关于, 涉及, 问题在于</t>
     </r>
     <r>
@@ -861,280 +1323,245 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Si tratta di vita o di morte.这与生死有关</t>
     </r>
-  </si>
-  <si>
-    <t>eseguire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>esegue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>实行，实施：
 eseguire un lavoro (un piano) 实行一项工作 (一个计划)</t>
-  </si>
-  <si>
-    <t>rilassarsi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>si rilassa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>放松, 松懈; 休息, 轻松一下 Cerca di rilassarti un po’！你尽量放松下</t>
-  </si>
-  <si>
-    <t>sentirsi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>感到，觉得;想要;打电话   Non mi sento di uscire. 我不想出去</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>mi sento</t>
-  </si>
-  <si>
-    <t>感到，觉得;想要;打电话   Non mi sento di uscire. 我不想出去</t>
-  </si>
-  <si>
-    <t>esistere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在，有 Questo personaggio non esiste.这个人物是不存在的.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>esiste</t>
-  </si>
-  <si>
-    <t>存在，有 Questo personaggio non esiste.这个人物是不存在的.</t>
-  </si>
-  <si>
-    <t>diventare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>diventa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Il latte è diventato acido. 牛奶变酸了</t>
-  </si>
-  <si>
-    <t>terminare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.intr [aus. essere] 结束; 终止, 完毕 Lo spettacolo termina alle cinque. 演出在五点钟结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>termina</t>
-  </si>
-  <si>
-    <t>v.intr [aus. essere] 结束; 终止, 完毕 Lo spettacolo termina alle cinque. 演出在五点钟结束</t>
-  </si>
-  <si>
-    <t>festeggiare</t>
-  </si>
-  <si>
-    <t>festeggia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>庆祝，欢庆：
 festeggiare un anniversario庆祝周年纪念日</t>
-  </si>
-  <si>
-    <t>avvenire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>festeggia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>avviene</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">v.intr Che cosa è avvenuto?发生了什么事?
 </t>
-  </si>
-  <si>
-    <t>impedire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>妨碍 Il maltempo ci ha impedito di partire.恶劣的天气使我们不能启程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>impedisce</t>
-  </si>
-  <si>
-    <t>妨碍 Il maltempo ci ha impedito di partire.恶劣的天气使我们不能启程</t>
-  </si>
-  <si>
-    <t>scomparire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.intr 不见, 消失，消逝, 消散:L’aereo scomparve all’orizzonte.飞机消失在地平线上</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>scomparisce</t>
-  </si>
-  <si>
-    <t>v.intr 不见, 消失，消逝, 消散:L’aereo scomparve all’orizzonte.飞机消失在地平线上</t>
-  </si>
-  <si>
-    <t>contattare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho contattato un cliente 我联系了一个客户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>contatta</t>
-  </si>
-  <si>
-    <t>ho contattato un cliente 我联系了一个客户</t>
-  </si>
-  <si>
-    <t>conoscere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>conosciamo</t>
-  </si>
-  <si>
-    <t>studiare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>voi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>studiate</t>
-  </si>
-  <si>
-    <t>trovare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>trova</t>
-  </si>
-  <si>
-    <t>posizionare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>posiziona</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vt. posizionare le telecamere 摆放好摄像头</t>
-  </si>
-  <si>
-    <t>riflettere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>riflette</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vt.反映，反射 L’aumento dei prezzi riflette la difficoltà della produzione. 物价上涨反映出生产上的困难
 vi. （后面+ su） 思考 riflettere sulle conseguenze 考虑后果
 Lasciami riflettere su un po’. 让我想一想</t>
-  </si>
-  <si>
-    <t>collegare</t>
-  </si>
-  <si>
-    <t>collega</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>连接, 接合：
 collegare due città con una linea ferroviaria 用铁路线把两个城市连接起来</t>
-  </si>
-  <si>
-    <t>programmare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>collega</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt. 制定计划,规划: programmare la produzione industriale 制定工业生产计划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>programma</t>
-  </si>
-  <si>
-    <t>vt. 制定计划,规划: programmare la produzione industriale 制定工业生产计划</t>
-  </si>
-  <si>
-    <t>apprezzare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutti apprezzano il suo lavoro. 大家都很重视他的工作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>apprezziamo</t>
-  </si>
-  <si>
-    <t>Tutti apprezzano il suo lavoro. 大家都很重视他的工作</t>
-  </si>
-  <si>
-    <t>ricevere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>riceve</t>
-  </si>
-  <si>
-    <t>riuscire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>riesce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>riuscire a fare qlco 成功做某事 Forse riusciremo a terminare il lavoro domani.也许明天我们可以结束工作</t>
-  </si>
-  <si>
-    <t>attrarre</t>
-  </si>
-  <si>
-    <t>attrae</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>招引, 引诱, 诱惑：
 I manifesti affissi al muro attrassero molti passanti 墙上的广告招引来许多行人</t>
-  </si>
-  <si>
-    <t>condividere</t>
-  </si>
-  <si>
-    <t>condivide</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrae</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>分享，分担；共同具有，共同使用：
 condividere gioie e dolori con qlcu. 与某人同甘共苦</t>
-  </si>
-  <si>
-    <t>riportare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>condivide</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>带回; 拿回：Mi ha riportato a casa in automobile. 她用汽车把我带回了家</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>riporta</t>
-  </si>
-  <si>
-    <t>带回; 拿回：Mi ha riportato a casa in automobile. 她用汽车把我带回了家</t>
-  </si>
-  <si>
-    <t>vedere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vede</t>
-  </si>
-  <si>
-    <t>incontrare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>incontra</t>
-  </si>
-  <si>
-    <t>invitare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>invita</t>
-  </si>
-  <si>
-    <t>chiudere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>chiude</t>
-  </si>
-  <si>
-    <t>mostrare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>mostra</t>
-  </si>
-  <si>
-    <t>arrivare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>arriva</t>
-  </si>
-  <si>
-    <t>durare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>dura</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>La rappresentazione dura due ore. 演出持续了两个小时</t>
-  </si>
-  <si>
-    <t>presentare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Posso presentarti mia cugina?我可以把我的表妹介绍给你吗？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>presenta</t>
-  </si>
-  <si>
-    <t>Posso presentarti mia cugina?我可以把我的表妹介绍给你吗？</t>
-  </si>
-  <si>
-    <t>applaudire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>applaude</t>
@@ -1142,65 +1569,58 @@
   <si>
     <t>vt.为...鼓掌，向...喝彩；欢呼：Gli operi applaudirono a lungo gli attori. 工人向演员们经久不息地鼓掌。
 vi. applaudire a uno spettacolo 为演出喝彩</t>
-  </si>
-  <si>
-    <t>acquistare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>acquista</t>
-  </si>
-  <si>
-    <t>买</t>
-  </si>
-  <si>
-    <t>vincere</t>
-  </si>
-  <si>
-    <t>vince</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">vincere un incontro di calcio 赢得一场足球比赛
 </t>
-  </si>
-  <si>
-    <t>provare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vince</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>prova</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vt. Proviamo a entrare.我们试着进去</t>
-  </si>
-  <si>
-    <t>sentire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sento</t>
-  </si>
-  <si>
-    <t>dedicare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Il primo capitolo del romanzo è dedicato alla descrizione dell’ambiente.小说的第一章用来描写环境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>dedica</t>
-  </si>
-  <si>
-    <t>Il primo capitolo del romanzo è dedicato alla descrizione dell’ambiente.小说的第一章用来描写环境</t>
-  </si>
-  <si>
-    <t>realizzare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>realizza</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>occorre</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>realizzare la gravità di una situazione 认识到情况的严重性</t>
     </r>
     <r>
@@ -1208,44 +1628,30 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> realizzare un sogno 实现梦想
 </t>
     </r>
-  </si>
-  <si>
-    <t>rompersi</t>
-  </si>
-  <si>
-    <t>si rompe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>自反动词：打破，折断，弄碎：
 Il bicchiere cadde e si ruppe in mille pezzi.杯子掉了下来，打得粉碎。</t>
-  </si>
-  <si>
-    <t>pensare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>si rompe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>pensa</t>
-  </si>
-  <si>
-    <t>mentire</t>
-  </si>
-  <si>
-    <t>mente</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>v</t>
     </r>
     <r>
@@ -1253,61 +1659,48 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>i. Non mentire ！不要说谎！</t>
     </r>
-  </si>
-  <si>
-    <t>sostituire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mente</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sostituire il tappeto logoro con un nuovo用新地毯换下旧地毯</t>
   </si>
   <si>
     <t>sostituisce</t>
-  </si>
-  <si>
-    <t>sostituire il tappeto logoro con un nuovo用新地毯换下旧地毯</t>
-  </si>
-  <si>
-    <t>reagire</t>
-  </si>
-  <si>
-    <t>reagisce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> sotto anestesia i nervi non reagiscono 
 麻醉状态下神经没有反应</t>
-  </si>
-  <si>
-    <t>desiderare</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reagisce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>desidera</t>
-  </si>
-  <si>
-    <t>inseguire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>insegue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>inseguire il nemico 追击敌人</t>
-  </si>
-  <si>
-    <t>frequentare</t>
-  </si>
-  <si>
-    <t>frequenta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>frequentare un bar 常去酒吧</t>
     </r>
     <r>
@@ -1315,17 +1708,17 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Mia figlia frequenta la quinta elementare.我女儿上小学五年级</t>
     </r>
-  </si>
-  <si>
-    <t>occorrere</t>
-  </si>
-  <si>
-    <t>occorre</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>frequenta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>v.intr.
@@ -1337,12 +1730,7 @@
 (2) [impers.] 必须：
 Occorre agire subito. 必须马上行动。
 Occorre far presto. 必须快点。</t>
-  </si>
-  <si>
-    <t>affrontare</t>
-  </si>
-  <si>
-    <t>affronta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>v.tr.
@@ -1356,14 +1744,247 @@
 (3) 研究，处理：
 affrontare una questione 研究问题
 affrontare un problema spinoso 处理一个棘手问题</t>
-  </si>
-  <si>
-    <t>possedere</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>affronta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>possiede</t>
-  </si>
-  <si>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>segue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>inserisce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>inizia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>entra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>illustra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guarda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>passa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>costringe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spiegate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ringrazio</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>racconta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>partecipa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prende</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>comincia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accolgo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>basta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sottolinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>raggiunge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>si avvicina</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>visita</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfrutta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci auguriamo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ripropone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ricorda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>viaggia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>si addormenta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>squilla</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggerisce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>immagino</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>assiste</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rivolgo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>io</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scatta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alza</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accende</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>si tocca</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorride</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mi occupo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>si accorge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>confessa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>interviene</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ripensa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>decide</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ospita</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spinge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cambia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>si candida</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>noi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>parliamo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>proviene</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>svolge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>conclude</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>giunge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>evidenzia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>propo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1372,6 +1993,44 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>rsi</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>si propone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>consente</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>si muove</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>registra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>controllate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>imparate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>integra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>permette</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>v</t>
     </r>
     <r>
@@ -1379,6 +2038,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1390,118 +2050,48 @@
 possedere molte qualità有许多优良品质
 possedere uno spiccato senso musicale有一种特殊的音乐感</t>
     </r>
-  </si>
-  <si>
-    <t>seguire</t>
-  </si>
-  <si>
-    <t>segue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Vai avanti tu, io ti seguo.你在前面走, 我跟着你</t>
-  </si>
-  <si>
-    <t>inserire</t>
-  </si>
-  <si>
-    <t>inserisce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>插入，放入，嵌入：
 inserire una lettera nella busta 将信装入信封</t>
-  </si>
-  <si>
-    <t>iniziare</t>
-  </si>
-  <si>
-    <t>inizia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>开始;发动, 创始：
 iniziare il lavoro开始工作</t>
-  </si>
-  <si>
-    <t>entrare</t>
-  </si>
-  <si>
-    <t>entra</t>
-  </si>
-  <si>
-    <t>illustrare</t>
-  </si>
-  <si>
-    <t>illustra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> (举例、加注) 说明， (用图和例子等) 解释：
 illustrare un’opera con note 注释一部著作</t>
-  </si>
-  <si>
-    <t>guardare</t>
-  </si>
-  <si>
-    <t>guarda</t>
-  </si>
-  <si>
-    <t>passare</t>
-  </si>
-  <si>
-    <t>passa</t>
-  </si>
-  <si>
-    <t>costringere</t>
-  </si>
-  <si>
-    <t>costringe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vt.逼迫, 迫使, 强迫 La malattia mi ha costretto a restare a casa.疾病使我不得不待在家里</t>
-  </si>
-  <si>
-    <t>spiegare</t>
-  </si>
-  <si>
-    <t>spiegate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>ringraziare</t>
-  </si>
-  <si>
-    <t>ringrazio</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>感谢，谢谢：
 ringraziare sinceramente qlcu. 对某人表示衷心感谢</t>
-  </si>
-  <si>
-    <t>raccontare</t>
-  </si>
-  <si>
-    <t>racconta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">叙述，讲述；描写，描绘：
 raccontare una storia (una fiaba) 讲故事 (童话)
 </t>
-  </si>
-  <si>
-    <t>partecipare</t>
-  </si>
-  <si>
-    <t>partecipa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>vi</t>
     </r>
     <r>
@@ -1509,40 +2099,17 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>.后面+a 参加, 参与：
 partecipare a una gara 参加一次比赛</t>
     </r>
-  </si>
-  <si>
-    <t>prendere</t>
-  </si>
-  <si>
-    <t>prende</t>
-  </si>
-  <si>
-    <t>cominciare</t>
-  </si>
-  <si>
-    <t>comincia</t>
-  </si>
-  <si>
-    <t>accogliere</t>
-  </si>
-  <si>
-    <t>accolgo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>v</t>
     </r>
     <r>
@@ -1550,6 +2117,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1557,41 +2125,19 @@
 accogliere una domanda 接受一个要求
 </t>
     </r>
-  </si>
-  <si>
-    <t>bastare</t>
-  </si>
-  <si>
-    <t>basta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Lo stipendio non gli basta mai.工资对他来说总是不够的</t>
-  </si>
-  <si>
-    <t>sottolineare</t>
-  </si>
-  <si>
-    <t>sottolinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vt. 着重指出, 强调指出,使突出：
 Tengo a sottolineare l’importanza di questo particolare.我想强调指出这个细节的重要</t>
-  </si>
-  <si>
-    <t>raggiungere</t>
-  </si>
-  <si>
-    <t>raggiunge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>v</t>
     </r>
     <r>
@@ -1599,6 +2145,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1606,22 +2153,10 @@
 Recentemente abbiamo raggiunto ottimi risultati. 最近我们取得了很好的成绩。
 </t>
     </r>
-  </si>
-  <si>
-    <t>avvicinarsi</t>
-  </si>
-  <si>
-    <t>si avvicina</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">v.rifl.
 临近; 接近, 靠近：
 </t>
@@ -1631,6 +2166,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1646,83 +2182,35 @@
       </rPr>
       <t>船靠近港口</t>
     </r>
-  </si>
-  <si>
-    <t>visitare</t>
-  </si>
-  <si>
-    <t>visita</t>
-  </si>
-  <si>
-    <t>sfruttare</t>
-  </si>
-  <si>
-    <t>sfrutta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vt. 开采，剥削，利用 sfruttare la fiducia di qlcu.利用某人的信任</t>
-  </si>
-  <si>
-    <t>augurarsi</t>
-  </si>
-  <si>
-    <t>ci auguriamo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>augurarsi
 v.rifl.
 希望：
 Tutti si augurano di visitare Yan’an.大家都希望能访问延安</t>
-  </si>
-  <si>
-    <t>riproporre</t>
-  </si>
-  <si>
-    <t>ripropone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">重新提出 ★★ 再提出
 </t>
-  </si>
-  <si>
-    <t>ricordare</t>
-  </si>
-  <si>
-    <t>ricorda</t>
-  </si>
-  <si>
-    <t>viaggiare</t>
-  </si>
-  <si>
-    <t>viaggia</t>
-  </si>
-  <si>
-    <t>addormentarsi</t>
-  </si>
-  <si>
-    <t>si addormenta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">v.rifl.
 (1) 入睡：
 Non si potevano addormentarsi </t>
-  </si>
-  <si>
-    <t>squillare</t>
-  </si>
-  <si>
-    <t>squilla</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>v.intr.
 [aus. essere 或 avere] (钟、铃等) 鸣, 响：
 Il telefono squilla.电话铃响了</t>
-  </si>
-  <si>
-    <t>suggerire</t>
-  </si>
-  <si>
-    <t>suggerisce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>(1) 使人想起;启发, 启示, 建议：
@@ -1731,21 +2219,11 @@
 Ilmedico ha suggerito al paziente di trascorrere un periodo di riposo in montagna. 医生建议病人到山上休息一段时期。
 (2) 提醒, 提示, 暗示：
 suggerire una risposta暗示一个回答</t>
-  </si>
-  <si>
-    <t>immaginare</t>
-  </si>
-  <si>
-    <t>immagino</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Non puoi immaginare quanto ne sia lieto!你不能想象我是多么的高兴</t>
-  </si>
-  <si>
-    <t>assistere</t>
-  </si>
-  <si>
-    <t>assiste</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>v.intr.
@@ -1760,22 +2238,10 @@
 assistere i pazienti 照料病人
 ★　常用短语：
 che la fortuna t’assista! 祝你运气好！</t>
-  </si>
-  <si>
-    <t>rivolgere</t>
-  </si>
-  <si>
-    <t>rivolgo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>v</t>
     </r>
     <r>
@@ -1783,6 +2249,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1790,12 +2257,7 @@
 rivolgere attenzione a qlco 把注意力转向某事
 </t>
     </r>
-  </si>
-  <si>
-    <t>scattare</t>
-  </si>
-  <si>
-    <t>scatta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>v.intr.
@@ -1812,21 +2274,11 @@
 v.tr.
 拍摄：
 scattare una foto拍照片</t>
-  </si>
-  <si>
-    <t>alzare</t>
-  </si>
-  <si>
-    <t>alza</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>举起 ★★ 抬高 ★★ 抬 ★★ 举</t>
-  </si>
-  <si>
-    <t>accendere</t>
-  </si>
-  <si>
-    <t>accende</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>(1) 点 (火), 点燃：
@@ -1835,31 +2287,14 @@
 accendere una sigaretta点烟
 (2) 开;开动：
 accendere la luce开灯</t>
-  </si>
-  <si>
-    <t>toccarsi</t>
-  </si>
-  <si>
-    <t>si tocca</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>相互触碰</t>
-  </si>
-  <si>
-    <t>sorridere</t>
-  </si>
-  <si>
-    <t>sorride</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>vi</t>
     </r>
     <r>
@@ -1867,18 +2302,14 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>. 微笑：
 sorridere dolcemente甜蜜地微笑</t>
     </r>
-  </si>
-  <si>
-    <t>occuparsi</t>
-  </si>
-  <si>
-    <t>mi occupo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>occuparsi
@@ -1891,22 +2322,10 @@
 Non te ne occupare! 你甭管了！你不要过问啦！
 (2) 受雇于，就业：
 S’è occupato come bidello in una scuola. 他在一所学校里做校工</t>
-  </si>
-  <si>
-    <t>accorgersi</t>
-  </si>
-  <si>
-    <t>si accorge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>v.rifl.
 [</t>
     </r>
@@ -1928,22 +2347,10 @@
 ★　常用短语：
 senz’accorgersene (senza accorgersene) 未注意到, 不知不觉地</t>
     </r>
-  </si>
-  <si>
-    <t>confessare</t>
-  </si>
-  <si>
-    <t>confessa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>供认坦白 ★★ 承认 ★★ 坦白 ★★ 忏悔</t>
     </r>
     <r>
@@ -1951,6 +2358,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1967,27 +2375,11 @@
       <t>ti confesserò i miei sogni
 我向你坦白我的梦</t>
     </r>
-  </si>
-  <si>
-    <t>continuare</t>
-  </si>
-  <si>
-    <t>continuo</t>
-  </si>
-  <si>
-    <t>intervenire</t>
-  </si>
-  <si>
-    <t>interviene</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vi.(后面+in)介入，干涉，出席参加 intervenire in un conflitto 参预冲突</t>
-  </si>
-  <si>
-    <t>ripensare</t>
-  </si>
-  <si>
-    <t>ripensa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>(1) 再想一想, 重新思考：
@@ -1996,12 +2388,7 @@
 Ho ripensato alla tua proposta. 我又想了一下你的建议。
 (2) 重新想起, 重新想到: ripensare alla giovinezza又想起年青时代
 (3) 改变想法:Ci ho ripesato, resto a casa. 我改变了想法, 我留在家里</t>
-  </si>
-  <si>
-    <t>decidere</t>
-  </si>
-  <si>
-    <t>decide</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>(1) 解决, 裁决：
@@ -2012,12 +2399,7 @@
 Questa iniziativa va decisa collettivamente.这项创议必须集体决定。
 decidere l’ora della partenza 决定出发时间
 [assol.] Lasciate decidere a lui.你们让他来决定。</t>
-  </si>
-  <si>
-    <t>ospitare</t>
-  </si>
-  <si>
-    <t>ospita</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>(1) 接待, 招待; 留宿：
@@ -2027,12 +2409,7 @@
 (2) 采用, 发表 (文章等) ; 展出 (画幅等) ：
 ospitare un articolo登载一篇文章, 发表一篇文章
 La mostra ospita molte opere dell’Ottocento. 这次画展展出许多十九世纪的作品。</t>
-  </si>
-  <si>
-    <t>spingere</t>
-  </si>
-  <si>
-    <t>spinge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">(1) 推, 推动: spingere un carro 推车
@@ -2046,45 +2423,18 @@
 Mi spinse a partire.他促使我动身。
 Il bisogno mi spinge a chiederti aiuto.需要迫使我来请你帮忙。
 </t>
-  </si>
-  <si>
-    <t>cambiare</t>
-  </si>
-  <si>
-    <t>cambia</t>
-  </si>
-  <si>
-    <t>candidarsi</t>
-  </si>
-  <si>
-    <t>si candida</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>candidarsi
 v.rifl.
 自己提名为候选人，参加竞选：
 candidarsi alla carica di sindaco 参加市长的竞选</t>
-  </si>
-  <si>
-    <t>parlare</t>
-  </si>
-  <si>
-    <t>parliamo</t>
-  </si>
-  <si>
-    <t>provenire</t>
-  </si>
-  <si>
-    <t>proviene</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vi.（后面+a) 来自，源自于merce che proviene dall’estero来自国外的货物</t>
-  </si>
-  <si>
-    <t>svolgere</t>
-  </si>
-  <si>
-    <t>svolge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">(1) 展开,打开, 摊开：
@@ -2097,22 +2447,10 @@
 svolgere un lavoro进行一项工作
 svolgere un’attività开展一项活动
 </t>
-  </si>
-  <si>
-    <t>concludere</t>
-  </si>
-  <si>
-    <t>conclude</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>v.tr</t>
     </r>
     <r>
@@ -2120,6 +2458,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2137,72 +2476,21 @@
 [aus. avere] 有说服力：
 un argomento che non conclude 一种没有说服力的论据</t>
     </r>
-  </si>
-  <si>
-    <t>giungere</t>
-  </si>
-  <si>
-    <t>giunge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vi.(后面+a)到达 Siamo giunti in tempo alla stazione.我们及时到了火车站。</t>
-  </si>
-  <si>
-    <t>evidenziare</t>
-  </si>
-  <si>
-    <t>evidenzia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1) 突出，使显明：
 evidenziare una pratica 准备速办一件公事
 evidenziare gli aspetti salienti di una recente scoperta scientifica把一项最新科学发明的主要部分如以突岀
 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>propo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rsi</t>
-    </r>
-  </si>
-  <si>
-    <t>si propone</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">决定 </t>
     </r>
     <r>
@@ -2210,6 +2498,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2230,27 +2519,18 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> nelle loro discussioni 
 我决定不再介入她们的讨论</t>
     </r>
-  </si>
-  <si>
-    <t>consentire</t>
-  </si>
-  <si>
-    <t>consente</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vt.允许 vi.同意（后面+a) i genitori hanno consentito al matrimonio 母父同意了这个婚事</t>
-  </si>
-  <si>
-    <t>muoversi</t>
-  </si>
-  <si>
-    <t>si muove</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>muòversi
@@ -2268,22 +2548,12 @@
 muovere a pietà同情, 怜悯
 (4) 运动, 运转：
 La luna si muove intorno alla Terra.月亮绕地球转动</t>
-  </si>
-  <si>
-    <t>registrare</t>
-  </si>
-  <si>
-    <t>registra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">把电视画面录在磁带上 ★★ 登记 ★★ 登记入住 ★★ 使适合 ★★ 调节 ★★ 调整 ★★ 校准 ★★ 注册 ★★ 记录 ★★ 录音
 </t>
-  </si>
-  <si>
-    <t>controllare</t>
-  </si>
-  <si>
-    <t>controllate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>(1) 控制: controllare il mercato internazionale del cacao控制国际可可市场
@@ -2296,18 +2566,7 @@
 controllare i conti查账
 controllare i biglietti查票
 controllare la pressione验血压</t>
-  </si>
-  <si>
-    <t>imparare</t>
-  </si>
-  <si>
-    <t>imparate</t>
-  </si>
-  <si>
-    <t>integrare</t>
-  </si>
-  <si>
-    <t>integra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1) 补全，使完全：
@@ -2317,31 +2576,25 @@
 (3) 使并入，使成为一体：
 integrare una minoranza etnica 同化一个少数民族
 </t>
-  </si>
-  <si>
-    <t>permettere</t>
-  </si>
-  <si>
-    <t>permette</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">v.tr.
 允许，准许，许可：
 Il medico non mi permette di uscire. 医生不许我出去。
 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>continuo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2353,161 +2606,26 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2520,194 +2638,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2730,255 +2662,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2988,68 +2678,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3307,28 +2959,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E273"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="D253" sqref="D253"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.175" customWidth="1"/>
-    <col min="2" max="2" width="17.55" customWidth="1"/>
-    <col min="3" max="3" width="8.55" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="65.9083333333333" customWidth="1"/>
+    <col min="5" max="5" width="65.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:5">
+    <row r="1" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3345,7 +2997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3360,7 +3012,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3375,7 +3027,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3390,7 +3042,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -3405,7 +3057,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3420,7 +3072,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -3435,7 +3087,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -3450,7 +3102,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -3465,7 +3117,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3480,7 +3132,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -3495,7 +3147,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -3510,7 +3162,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -3525,7 +3177,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -3540,7 +3192,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -3555,7 +3207,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -3570,7 +3222,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3585,7 +3237,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -3600,7 +3252,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -3615,7 +3267,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -3630,7 +3282,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -3645,7 +3297,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -3660,7 +3312,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -3675,7 +3327,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
@@ -3690,7 +3342,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -3705,7 +3357,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -3720,7 +3372,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -3735,7 +3387,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
@@ -3750,7 +3402,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -3765,7 +3417,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -3780,7 +3432,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -3795,7 +3447,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -3810,7 +3462,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
@@ -3825,7 +3477,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -3840,7 +3492,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
@@ -3855,7 +3507,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
@@ -3870,7 +3522,7 @@
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
@@ -3885,7 +3537,7 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -3900,7 +3552,7 @@
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
@@ -3915,7 +3567,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
@@ -3930,7 +3582,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
@@ -3945,7 +3597,7 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
@@ -3960,7 +3612,7 @@
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
@@ -3975,7 +3627,7 @@
       </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -3990,7 +3642,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>5</v>
       </c>
@@ -4005,7 +3657,7 @@
       </c>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
@@ -4020,7 +3672,7 @@
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
@@ -4035,7 +3687,7 @@
       </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>5</v>
       </c>
@@ -4050,7 +3702,7 @@
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>5</v>
       </c>
@@ -4065,7 +3717,7 @@
       </c>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -4080,7 +3732,7 @@
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -4095,7 +3747,7 @@
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -4110,7 +3762,7 @@
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
@@ -4125,7 +3777,7 @@
       </c>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>5</v>
       </c>
@@ -4140,7 +3792,7 @@
       </c>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>5</v>
       </c>
@@ -4155,7 +3807,7 @@
       </c>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>5</v>
       </c>
@@ -4170,7 +3822,7 @@
       </c>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>5</v>
       </c>
@@ -4185,7 +3837,7 @@
       </c>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>5</v>
       </c>
@@ -4200,7 +3852,7 @@
       </c>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>5</v>
       </c>
@@ -4215,7 +3867,7 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>5</v>
       </c>
@@ -4230,7 +3882,7 @@
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>5</v>
       </c>
@@ -4245,7 +3897,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>5</v>
       </c>
@@ -4260,7 +3912,7 @@
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>5</v>
       </c>
@@ -4275,7 +3927,7 @@
       </c>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>5</v>
       </c>
@@ -4290,7 +3942,7 @@
       </c>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>5</v>
       </c>
@@ -4305,7 +3957,7 @@
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>5</v>
       </c>
@@ -4320,7 +3972,7 @@
       </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>5</v>
       </c>
@@ -4335,7 +3987,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>5</v>
       </c>
@@ -4350,7 +4002,7 @@
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>5</v>
       </c>
@@ -4365,7 +4017,7 @@
       </c>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>5</v>
       </c>
@@ -4380,7 +4032,7 @@
       </c>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>5</v>
       </c>
@@ -4395,7 +4047,7 @@
       </c>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>5</v>
       </c>
@@ -4410,7 +4062,7 @@
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>5</v>
       </c>
@@ -4425,7 +4077,7 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>5</v>
       </c>
@@ -4440,7 +4092,7 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>5</v>
       </c>
@@ -4455,7 +4107,7 @@
       </c>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>5</v>
       </c>
@@ -4470,7 +4122,7 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>5</v>
       </c>
@@ -4485,7 +4137,7 @@
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>5</v>
       </c>
@@ -4500,7 +4152,7 @@
       </c>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>5</v>
       </c>
@@ -4515,7 +4167,7 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>5</v>
       </c>
@@ -4530,7 +4182,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>5</v>
       </c>
@@ -4545,7 +4197,7 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>5</v>
       </c>
@@ -4560,7 +4212,7 @@
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>5</v>
       </c>
@@ -4575,7 +4227,7 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>5</v>
       </c>
@@ -4590,7 +4242,7 @@
       </c>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>5</v>
       </c>
@@ -4605,7 +4257,7 @@
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>5</v>
       </c>
@@ -4620,7 +4272,7 @@
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>5</v>
       </c>
@@ -4635,7 +4287,7 @@
       </c>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>5</v>
       </c>
@@ -4650,7 +4302,7 @@
       </c>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>5</v>
       </c>
@@ -4665,7 +4317,7 @@
       </c>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>5</v>
       </c>
@@ -4680,7 +4332,7 @@
       </c>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>5</v>
       </c>
@@ -4695,7 +4347,7 @@
       </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>5</v>
       </c>
@@ -4710,7 +4362,7 @@
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>5</v>
       </c>
@@ -4725,7 +4377,7 @@
       </c>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>5</v>
       </c>
@@ -4740,7 +4392,7 @@
       </c>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>5</v>
       </c>
@@ -4755,7 +4407,7 @@
       </c>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>5</v>
       </c>
@@ -4770,7 +4422,7 @@
       </c>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
@@ -4785,7 +4437,7 @@
       </c>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>5</v>
       </c>
@@ -4800,7 +4452,7 @@
       </c>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>5</v>
       </c>
@@ -4815,7 +4467,7 @@
       </c>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>5</v>
       </c>
@@ -4830,7 +4482,7 @@
       </c>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>5</v>
       </c>
@@ -4843,9 +4495,9 @@
       <c r="D101" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>5</v>
       </c>
@@ -4860,7 +4512,7 @@
       </c>
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>5</v>
       </c>
@@ -4875,7 +4527,7 @@
       </c>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>5</v>
       </c>
@@ -4892,7 +4544,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>5</v>
       </c>
@@ -4909,7 +4561,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>5</v>
       </c>
@@ -4926,7 +4578,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>5</v>
       </c>
@@ -4943,7 +4595,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>5</v>
       </c>
@@ -4960,7 +4612,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>5</v>
       </c>
@@ -4977,7 +4629,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>5</v>
       </c>
@@ -4992,7 +4644,7 @@
       </c>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>5</v>
       </c>
@@ -5007,7 +4659,7 @@
       </c>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>5</v>
       </c>
@@ -5022,7 +4674,7 @@
       </c>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>5</v>
       </c>
@@ -5037,7 +4689,7 @@
       </c>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>5</v>
       </c>
@@ -5052,7 +4704,7 @@
       </c>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>5</v>
       </c>
@@ -5067,7 +4719,7 @@
       </c>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>5</v>
       </c>
@@ -5084,7 +4736,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>5</v>
       </c>
@@ -5101,7 +4753,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>5</v>
       </c>
@@ -5118,7 +4770,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>5</v>
       </c>
@@ -5135,7 +4787,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>5</v>
       </c>
@@ -5152,7 +4804,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>5</v>
       </c>
@@ -5169,7 +4821,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>5</v>
       </c>
@@ -5186,7 +4838,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>5</v>
       </c>
@@ -5203,7 +4855,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>5</v>
       </c>
@@ -5220,7 +4872,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>5</v>
       </c>
@@ -5237,7 +4889,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>5</v>
       </c>
@@ -5254,7 +4906,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>5</v>
       </c>
@@ -5271,7 +4923,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>5</v>
       </c>
@@ -5288,7 +4940,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>5</v>
       </c>
@@ -5305,7 +4957,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>5</v>
       </c>
@@ -5322,7 +4974,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>5</v>
       </c>
@@ -5339,7 +4991,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>5</v>
       </c>
@@ -5356,7 +5008,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>5</v>
       </c>
@@ -5373,7 +5025,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>5</v>
       </c>
@@ -5388,7 +5040,7 @@
       </c>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>5</v>
       </c>
@@ -5403,7 +5055,7 @@
       </c>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>5</v>
       </c>
@@ -5418,7 +5070,7 @@
       </c>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>5</v>
       </c>
@@ -5433,7 +5085,7 @@
       </c>
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>5</v>
       </c>
@@ -5448,7 +5100,7 @@
       </c>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>5</v>
       </c>
@@ -5463,7 +5115,7 @@
       </c>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>5</v>
       </c>
@@ -5478,7 +5130,7 @@
       </c>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>5</v>
       </c>
@@ -5493,7 +5145,7 @@
       </c>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>5</v>
       </c>
@@ -5508,7 +5160,7 @@
       </c>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>5</v>
       </c>
@@ -5523,7 +5175,7 @@
       </c>
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>5</v>
       </c>
@@ -5538,7 +5190,7 @@
       </c>
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>5</v>
       </c>
@@ -5553,7 +5205,7 @@
       </c>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>5</v>
       </c>
@@ -5568,7 +5220,7 @@
       </c>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>5</v>
       </c>
@@ -5583,7 +5235,7 @@
       </c>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>5</v>
       </c>
@@ -5593,12 +5245,12 @@
       <c r="C148" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" s="3" t="s">
         <v>186</v>
       </c>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>5</v>
       </c>
@@ -5613,7 +5265,7 @@
       </c>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>5</v>
       </c>
@@ -5628,7 +5280,7 @@
       </c>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>5</v>
       </c>
@@ -5643,2027 +5295,2025 @@
       </c>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D152" s="2" t="s">
+      <c r="C152" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="C153" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153" s="3" t="s">
+      <c r="C154" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D153" s="2" t="s">
+      <c r="C155" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E153" s="2"/>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" s="3" t="s">
+      <c r="C156" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="C158" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="C159" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B155" s="3" t="s">
+      <c r="C160" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D155" s="2" t="s">
+      <c r="C161" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="C162" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B156" s="3" t="s">
+      <c r="C163" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D156" s="2" t="s">
+      <c r="C164" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E156" s="2"/>
-    </row>
-    <row r="157" ht="54" spans="1:5">
-      <c r="A157" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B157" s="2" t="s">
+      <c r="C165" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D157" s="2" t="s">
+      <c r="C166" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E157" s="4" t="s">
+      <c r="C167" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="158" ht="54" spans="1:5">
-      <c r="A158" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B158" s="3" t="s">
+      <c r="C168" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D158" s="2" t="s">
+      <c r="C169" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E158" s="4" t="s">
+      <c r="C170" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B159" s="3" t="s">
+      <c r="C171" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D159" s="2" t="s">
+      <c r="C172" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E159" s="2"/>
-    </row>
-    <row r="160" ht="40.5" spans="1:5">
-      <c r="A160" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B160" s="3" t="s">
+      <c r="C173" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D160" s="2" t="s">
+      <c r="C174" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E160" s="4" t="s">
+      <c r="C175" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="161" ht="27" spans="1:5">
-      <c r="A161" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B161" s="3" t="s">
+      <c r="C176" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161" s="2" t="s">
+      <c r="C177" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E161" s="4" t="s">
+      <c r="C178" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="162" ht="27" spans="1:5">
-      <c r="A162" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B162" s="3" t="s">
+      <c r="C179" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D162" s="2" t="s">
+      <c r="C180" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E162" s="4" t="s">
+      <c r="C181" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="163" ht="27" spans="1:5">
-      <c r="A163" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B163" s="3" t="s">
+      <c r="C182" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D163" s="2" t="s">
+      <c r="C183" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E163" s="4" t="s">
+      <c r="C184" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="164" ht="27" spans="1:5">
-      <c r="A164" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B164" s="3" t="s">
+      <c r="C185" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D164" s="2" t="s">
+      <c r="C186" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E164" s="4" t="s">
+      <c r="C187" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B165" s="3" t="s">
+      <c r="C188" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D165" s="2" t="s">
+      <c r="C189" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E165" s="4" t="s">
+      <c r="C190" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" s="4" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B166" s="3" t="s">
+      <c r="C191" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D166" s="2" t="s">
+      <c r="C192" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E166" s="4" t="s">
+      <c r="C193" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" s="4" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B167" s="3" t="s">
+      <c r="C194" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D167" s="2" t="s">
+      <c r="C195" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E167" s="4" t="s">
+      <c r="C196" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" s="4" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="168" ht="27" spans="1:5">
-      <c r="A168" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B168" s="3" t="s">
+      <c r="C197" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D168" s="2" t="s">
+      <c r="C198" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E168" s="4" t="s">
+      <c r="C199" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" s="4" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="169" ht="27" spans="1:5">
-      <c r="A169" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B169" s="3" t="s">
+      <c r="C200" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D169" s="2" t="s">
+      <c r="C201" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E169" s="4" t="s">
+      <c r="C202" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="4" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="170" ht="27" spans="1:5">
-      <c r="A170" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B170" s="3" t="s">
+      <c r="C203" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E203" s="2"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D170" s="2" t="s">
+      <c r="C204" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E170" s="4" t="s">
+      <c r="C205" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" s="4" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B171" s="3" t="s">
+      <c r="C206" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D171" s="2" t="s">
+      <c r="C207" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E207" s="2"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E171" s="4" t="s">
+      <c r="C208" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="172" ht="27" spans="1:5">
-      <c r="A172" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B172" s="3" t="s">
+      <c r="C209" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="154" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D172" s="2" t="s">
+      <c r="C210" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="168" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E172" s="4" t="s">
+      <c r="C211" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" s="4" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B173" s="3" t="s">
+      <c r="C212" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D173" s="2" t="s">
+      <c r="C213" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E173" s="4" t="s">
+      <c r="C214" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" s="4" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B174" s="3" t="s">
+      <c r="C215" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D174" s="2" t="s">
+      <c r="C216" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E216" s="2"/>
+    </row>
+    <row r="217" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E174" s="2"/>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B175" s="3" t="s">
+      <c r="C217" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D175" s="2" t="s">
+      <c r="C218" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B219" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E175" s="2"/>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B176" s="3" t="s">
+      <c r="C219" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D176" s="2" t="s">
+      <c r="C220" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B177" s="3" t="s">
+      <c r="C221" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B222" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D177" s="2" t="s">
+      <c r="C222" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B223" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="C223" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" s="4" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="178" ht="54" spans="1:5">
-      <c r="A178" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B178" s="3" t="s">
+      <c r="C224" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D178" s="2" t="s">
+      <c r="C225" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E225" s="2"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E178" s="4" t="s">
+      <c r="C226" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E226" s="2"/>
+    </row>
+    <row r="227" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="179" ht="40.5" spans="1:5">
-      <c r="A179" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B179" s="3" t="s">
+      <c r="C227" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B228" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D179" s="2" t="s">
+      <c r="C228" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="E179" s="4" t="s">
+      <c r="C229" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" s="4" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B180" s="3" t="s">
+      <c r="C230" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D180" s="2" t="s">
+      <c r="C231" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="C232" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" s="4" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B181" s="3" t="s">
+      <c r="C233" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="C234" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="C235" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" s="4" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B182" s="3" t="s">
+      <c r="C236" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D182" s="2" t="s">
+      <c r="C237" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E237" s="2"/>
+    </row>
+    <row r="238" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B183" s="3" t="s">
+      <c r="C238" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D183" s="2" t="s">
+      <c r="C239" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E183" s="2" t="s">
+      <c r="C240" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B241" s="4" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="184" ht="40.5" spans="1:5">
-      <c r="A184" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B184" s="3" t="s">
+      <c r="C241" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="182" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B242" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="C242" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E184" s="4" t="s">
+      <c r="C243" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="224" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" s="4" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="185" ht="27" spans="1:5">
-      <c r="A185" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B185" s="3" t="s">
+      <c r="C244" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D185" s="2" t="s">
+      <c r="C245" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E185" s="4" t="s">
+      <c r="C246" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247" s="4" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B186" s="3" t="s">
+      <c r="C247" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B248" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D186" s="2" t="s">
+      <c r="C248" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="140" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B249" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E186" s="2" t="s">
+      <c r="C249" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="168" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250" s="4" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B187" s="3" t="s">
+      <c r="C250" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B251" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D187" s="2" t="s">
+      <c r="C251" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B252" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B188" s="3" t="s">
+      <c r="C252" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E252" s="2"/>
+    </row>
+    <row r="253" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B253" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D188" s="2" t="s">
+      <c r="C253" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B254" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E188" s="2"/>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B189" s="3" t="s">
+      <c r="C254" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B255" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D189" s="2" t="s">
+      <c r="C255" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B256" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E189" s="2"/>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B190" s="3" t="s">
+      <c r="C256" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="196" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B257" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D190" s="2" t="s">
+      <c r="C257" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="E190" s="2"/>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B191" s="3" t="s">
+      <c r="C258" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E258" s="2"/>
+    </row>
+    <row r="259" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B259" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D191" s="2" t="s">
+      <c r="C259" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B260" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="E191" s="2"/>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B192" s="3" t="s">
+      <c r="C260" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E260" s="2"/>
+    </row>
+    <row r="261" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B261" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D192" s="2" t="s">
+      <c r="C261" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="140" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E192" s="2"/>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B193" s="3" t="s">
+      <c r="C262" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="196" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D193" s="2" t="s">
+      <c r="C263" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="E193" s="2" t="s">
+      <c r="C264" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="70" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B265" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B194" s="3" t="s">
+      <c r="C265" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B267" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D194" s="2" t="s">
+      <c r="C267" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E267" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B268" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="E194" s="2" t="s">
+      <c r="C268" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B269" s="4" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="195" ht="40.5" spans="1:5">
-      <c r="A195" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B195" s="3" t="s">
+      <c r="C269" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="168" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B270" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D195" s="2" t="s">
+      <c r="C270" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B271" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E195" s="4" t="s">
+      <c r="C271" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E271" s="2"/>
+    </row>
+    <row r="272" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B273" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E196" s="2" t="s">
+      <c r="C273" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="197" ht="27" spans="1:5">
-      <c r="A197" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E199" s="2"/>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="201" ht="40.5" spans="1:5">
-      <c r="A201" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="202" ht="40.5" spans="1:5">
-      <c r="A202" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E203" s="2"/>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="206" ht="27" spans="1:5">
-      <c r="A206" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="E207" s="2"/>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="210" ht="148.5" spans="1:5">
-      <c r="A210" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E210" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="211" ht="162" spans="1:5">
-      <c r="A211" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="212" ht="94.5" spans="1:5">
-      <c r="A212" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="214" ht="27" spans="1:5">
-      <c r="A214" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="215" ht="27" spans="1:5">
-      <c r="A215" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E215" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E216" s="2"/>
-    </row>
-    <row r="217" ht="27" spans="1:5">
-      <c r="A217" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E218" s="2"/>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E219" s="2"/>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="222" ht="27" spans="1:5">
-      <c r="A222" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="223" ht="40.5" spans="1:5">
-      <c r="A223" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="224" ht="27" spans="1:5">
-      <c r="A224" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E225" s="2"/>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E226" s="2"/>
-    </row>
-    <row r="227" ht="40.5" spans="1:5">
-      <c r="A227" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E228" s="4" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="229" ht="40.5" spans="1:5">
-      <c r="A229" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E229" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="230" ht="54" spans="1:5">
-      <c r="A230" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E230" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="231" ht="40.5" spans="1:5">
-      <c r="A231" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E231" s="4" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E232" s="2"/>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="234" ht="54" spans="1:5">
-      <c r="A234" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E234" s="4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="235" ht="27" spans="1:5">
-      <c r="A235" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E235" s="4" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E236" s="2"/>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E237" s="2"/>
-    </row>
-    <row r="238" ht="40.5" spans="1:5">
-      <c r="A238" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E238" s="4" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="239" ht="40.5" spans="1:5">
-      <c r="A239" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E239" s="4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="240" ht="121.5" spans="1:5">
-      <c r="A240" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="E240" s="4" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="E241" s="4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="242" ht="175.5" spans="1:5">
-      <c r="A242" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E242" s="4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="243" ht="40.5" spans="1:5">
-      <c r="A243" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="E243" s="4" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="244" ht="216" spans="1:5">
-      <c r="A244" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E244" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E245" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="246" ht="81" spans="1:5">
-      <c r="A246" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E247" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="248" ht="27" spans="1:5">
-      <c r="A248" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="E248" s="4" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="249" ht="135" spans="1:5">
-      <c r="A249" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="E249" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="250" ht="162" spans="1:5">
-      <c r="A250" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="E250" s="4" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="251" ht="27" spans="1:5">
-      <c r="A251" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="E251" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="A252" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E252" s="2"/>
-    </row>
-    <row r="253" ht="27" spans="1:5">
-      <c r="A253" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="E253" s="4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="254" ht="94.5" spans="1:5">
-      <c r="A254" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E254" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="255" ht="108" spans="1:5">
-      <c r="A255" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="E255" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="256" ht="121.5" spans="1:5">
-      <c r="A256" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E256" s="4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="257" ht="175.5" spans="1:5">
-      <c r="A257" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="E257" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B258" s="3" t="s">
+      <c r="D273" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="C258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="E258" s="2"/>
-    </row>
-    <row r="259" ht="54" spans="1:5">
-      <c r="A259" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="E259" s="4" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="E260" s="2"/>
-    </row>
-    <row r="261" ht="27" spans="1:5">
-      <c r="A261" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="E261" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="262" ht="135" spans="1:5">
-      <c r="A262" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="E262" s="4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="263" ht="189" spans="1:5">
-      <c r="A263" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="E263" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="264" ht="27" spans="1:5">
-      <c r="A264" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="E264" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="265" ht="67.5" spans="1:5">
-      <c r="A265" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="E265" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="266" ht="27" spans="1:5">
-      <c r="A266" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="E266" s="4" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="267" ht="27" spans="1:5">
-      <c r="A267" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E267" s="4" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="268" ht="202.5" spans="1:5">
-      <c r="A268" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E268" s="4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="269" ht="40.5" spans="1:5">
-      <c r="A269" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="E269" s="4" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="270" ht="162" spans="1:5">
-      <c r="A270" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E270" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="A271" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E271" s="2"/>
-    </row>
-    <row r="272" ht="108" spans="1:5">
-      <c r="A272" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E272" s="4" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="273" ht="54" spans="1:5">
-      <c r="A273" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="E273" s="4" t="s">
-        <v>527</v>
+      <c r="E273" s="5" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>